--- a/excel/teste_faturamento-teste-email-duplicado 1.xlsx
+++ b/excel/teste_faturamento-teste-email-duplicado 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B97AC1-6876-41F5-BE76-2891F47913CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0CC8F95-29AF-4143-A4BD-13EC80415AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="345">
   <si>
     <t>ID interno</t>
   </si>
@@ -143,7 +143,7 @@
     <t>LOJA UBATUBA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>maria.escobar@e-deploy.com.br</t>
+    <t>phlastforall@gmail.com</t>
   </si>
   <si>
     <t>012454</t>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>LOJA OUTLET GUARULHOS - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
-  </si>
-  <si>
-    <t>phlastforall@gmail.com</t>
   </si>
   <si>
     <t>012455</t>
@@ -1962,7 +1959,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2257,7 +2254,7 @@
         <v>45236</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2271,16 +2268,16 @@
         <v>45210</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="4">
         <v>651.22</v>
@@ -2292,7 +2289,7 @@
         <v>45236</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2306,16 +2303,16 @@
         <v>45210</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="4">
         <v>637.12</v>
@@ -2327,7 +2324,7 @@
         <v>45240</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2341,16 +2338,16 @@
         <v>45210</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="4">
         <v>636.41999999999996</v>
@@ -2362,7 +2359,7 @@
         <v>45240</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2376,16 +2373,16 @@
         <v>45210</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H12" s="4">
         <v>637.12</v>
@@ -2397,7 +2394,7 @@
         <v>45236</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2411,16 +2408,16 @@
         <v>45210</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="4">
         <v>637.12</v>
@@ -2432,7 +2429,7 @@
         <v>45236</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2446,16 +2443,16 @@
         <v>45210</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="4">
         <v>637.12</v>
@@ -2467,7 +2464,7 @@
         <v>45236</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2481,16 +2478,16 @@
         <v>45210</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H15" s="4">
         <v>651.22</v>
@@ -2502,7 +2499,7 @@
         <v>45236</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2516,16 +2513,16 @@
         <v>45210</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="4">
         <v>637.12</v>
@@ -2537,7 +2534,7 @@
         <v>45236</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2551,16 +2548,16 @@
         <v>45210</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="4">
         <v>601.62</v>
@@ -2572,7 +2569,7 @@
         <v>45236</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2586,16 +2583,16 @@
         <v>45210</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="4">
         <v>637.12</v>
@@ -2607,7 +2604,7 @@
         <v>45236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2621,16 +2618,16 @@
         <v>45210</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H19" s="4">
         <v>637.12</v>
@@ -2642,7 +2639,7 @@
         <v>45236</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2656,16 +2653,16 @@
         <v>45210</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="4">
         <v>636.29999999999995</v>
@@ -2677,7 +2674,7 @@
         <v>45236</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2691,16 +2688,16 @@
         <v>45210</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="H21" s="4">
         <v>651.22</v>
@@ -2712,7 +2709,7 @@
         <v>45236</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2726,16 +2723,16 @@
         <v>45210</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="H22" s="4">
         <v>651.22</v>
@@ -2747,7 +2744,7 @@
         <v>45236</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2761,16 +2758,16 @@
         <v>45210</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="H23" s="4">
         <v>651.22</v>
@@ -2782,7 +2779,7 @@
         <v>45236</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2796,16 +2793,16 @@
         <v>45210</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H24" s="4">
         <v>651.22</v>
@@ -2817,7 +2814,7 @@
         <v>45236</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2831,16 +2828,16 @@
         <v>45210</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H25" s="4">
         <v>651.22</v>
@@ -2852,7 +2849,7 @@
         <v>45236</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2866,16 +2863,16 @@
         <v>45210</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="4">
         <v>637.12</v>
@@ -2887,7 +2884,7 @@
         <v>45236</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2901,16 +2898,16 @@
         <v>45210</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="H27" s="4">
         <v>637.12</v>
@@ -2922,7 +2919,7 @@
         <v>45236</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2936,16 +2933,16 @@
         <v>45210</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="H28" s="4">
         <v>651.22</v>
@@ -2957,7 +2954,7 @@
         <v>45236</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2971,16 +2968,16 @@
         <v>45210</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="4">
         <v>370.66</v>
@@ -2992,7 +2989,7 @@
         <v>45245</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3006,16 +3003,16 @@
         <v>45210</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H30" s="4">
         <v>636.36</v>
@@ -3027,7 +3024,7 @@
         <v>45245</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3041,16 +3038,16 @@
         <v>45210</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="H31" s="4">
         <v>688.64</v>
@@ -3062,7 +3059,7 @@
         <v>45236</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3076,16 +3073,16 @@
         <v>45210</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="H32" s="4">
         <v>688.64</v>
@@ -3097,7 +3094,7 @@
         <v>45236</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3111,16 +3108,16 @@
         <v>45210</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H33" s="4">
         <v>694.42</v>
@@ -3132,7 +3129,7 @@
         <v>45236</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3146,16 +3143,16 @@
         <v>45210</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="H34" s="4">
         <v>684.27</v>
@@ -3167,7 +3164,7 @@
         <v>45245</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3181,16 +3178,16 @@
         <v>45210</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="H35" s="4">
         <v>637.12</v>
@@ -3202,7 +3199,7 @@
         <v>45245</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3216,16 +3213,16 @@
         <v>45210</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="H36" s="4">
         <v>637.12</v>
@@ -3237,7 +3234,7 @@
         <v>45245</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3251,16 +3248,16 @@
         <v>45210</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="H37" s="4">
         <v>637.12</v>
@@ -3272,7 +3269,7 @@
         <v>45236</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3286,16 +3283,16 @@
         <v>45210</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="H38" s="4">
         <v>635.29999999999995</v>
@@ -3307,7 +3304,7 @@
         <v>45236</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3321,16 +3318,16 @@
         <v>45210</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="H39" s="4">
         <v>629.6</v>
@@ -3342,7 +3339,7 @@
         <v>45236</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3356,16 +3353,16 @@
         <v>45210</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="H40" s="4">
         <v>637.12</v>
@@ -3377,7 +3374,7 @@
         <v>45245</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3391,16 +3388,16 @@
         <v>45210</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="H41" s="4">
         <v>601.62</v>
@@ -3412,7 +3409,7 @@
         <v>45236</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3426,16 +3423,16 @@
         <v>45210</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H42" s="4">
         <v>630.11</v>
@@ -3447,7 +3444,7 @@
         <v>45236</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3461,16 +3458,16 @@
         <v>45210</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H43" s="4">
         <v>651.22</v>
@@ -3482,7 +3479,7 @@
         <v>45236</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3496,16 +3493,16 @@
         <v>45210</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="H44" s="4">
         <v>601.62</v>
@@ -3517,7 +3514,7 @@
         <v>45236</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3531,16 +3528,16 @@
         <v>45210</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="H45" s="4">
         <v>630.11</v>
@@ -3552,7 +3549,7 @@
         <v>45236</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3566,16 +3563,16 @@
         <v>45210</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="H46" s="4">
         <v>630.11</v>
@@ -3587,7 +3584,7 @@
         <v>45236</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3601,16 +3598,16 @@
         <v>45210</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="H47" s="4">
         <v>637.12</v>
@@ -3622,7 +3619,7 @@
         <v>45236</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3636,16 +3633,16 @@
         <v>45210</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="H48" s="4">
         <v>637.12</v>
@@ -3657,7 +3654,7 @@
         <v>45236</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3671,16 +3668,16 @@
         <v>45210</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="H49" s="4">
         <v>637.12</v>
@@ -3692,7 +3689,7 @@
         <v>45236</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3706,16 +3703,16 @@
         <v>45210</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="H50" s="4">
         <v>636.41999999999996</v>
@@ -3727,7 +3724,7 @@
         <v>45236</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3741,16 +3738,16 @@
         <v>45210</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="H51" s="4">
         <v>651.22</v>
@@ -3762,7 +3759,7 @@
         <v>45236</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3776,16 +3773,16 @@
         <v>45210</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="H52" s="4">
         <v>651.22</v>
@@ -3797,7 +3794,7 @@
         <v>45236</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3811,16 +3808,16 @@
         <v>45210</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H53" s="4">
         <v>636.41999999999996</v>
@@ -3832,7 +3829,7 @@
         <v>45236</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3846,16 +3843,16 @@
         <v>45210</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="H54" s="4">
         <v>625.29999999999995</v>
@@ -3867,7 +3864,7 @@
         <v>45236</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3881,16 +3878,16 @@
         <v>45210</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H55" s="4">
         <v>636.41999999999996</v>
@@ -3902,7 +3899,7 @@
         <v>45236</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3916,16 +3913,16 @@
         <v>45210</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H56" s="4">
         <v>637.12</v>
@@ -3937,7 +3934,7 @@
         <v>45236</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3951,16 +3948,16 @@
         <v>45210</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="H57" s="4">
         <v>637.12</v>
@@ -3972,7 +3969,7 @@
         <v>45236</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3986,16 +3983,16 @@
         <v>45210</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="H58" s="4">
         <v>601.62</v>
@@ -4007,7 +4004,7 @@
         <v>45236</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4021,16 +4018,16 @@
         <v>45210</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="H59" s="4">
         <v>636.41999999999996</v>
@@ -4042,7 +4039,7 @@
         <v>45236</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4056,16 +4053,16 @@
         <v>45210</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="H60" s="4">
         <v>637.12</v>
@@ -4077,7 +4074,7 @@
         <v>45236</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4091,16 +4088,16 @@
         <v>45210</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="H61" s="4">
         <v>601.62</v>
@@ -4112,7 +4109,7 @@
         <v>45236</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4126,16 +4123,16 @@
         <v>45210</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="H62" s="4">
         <v>644.74</v>
@@ -4147,7 +4144,7 @@
         <v>45236</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4161,16 +4158,16 @@
         <v>45210</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="H63" s="4">
         <v>636.41999999999996</v>
@@ -4182,7 +4179,7 @@
         <v>45236</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4196,16 +4193,16 @@
         <v>45210</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="H64" s="4">
         <v>636.41999999999996</v>
@@ -4217,7 +4214,7 @@
         <v>45236</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4231,16 +4228,16 @@
         <v>45210</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="H65" s="4">
         <v>644.74</v>
@@ -4252,7 +4249,7 @@
         <v>45236</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4266,16 +4263,16 @@
         <v>45210</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="H66" s="4">
         <v>651.22</v>
@@ -4287,7 +4284,7 @@
         <v>45236</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4301,16 +4298,16 @@
         <v>45210</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="H67" s="4">
         <v>644.74</v>
@@ -4322,7 +4319,7 @@
         <v>45236</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4336,16 +4333,16 @@
         <v>45210</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="H68" s="4">
         <v>688.64</v>
@@ -4357,7 +4354,7 @@
         <v>45236</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4371,16 +4368,16 @@
         <v>45210</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="H69" s="4">
         <v>644.74</v>
@@ -4392,7 +4389,7 @@
         <v>45236</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4406,16 +4403,16 @@
         <v>45210</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="H70" s="4">
         <v>626.79</v>
@@ -4427,7 +4424,7 @@
         <v>45236</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4441,16 +4438,16 @@
         <v>45210</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="H71" s="4">
         <v>688.64</v>
@@ -4462,7 +4459,7 @@
         <v>45236</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4476,16 +4473,16 @@
         <v>45210</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="H72" s="4">
         <v>637.12</v>
@@ -4497,7 +4494,7 @@
         <v>45236</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4511,16 +4508,16 @@
         <v>45210</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="H73" s="4">
         <v>684.27</v>
@@ -4532,7 +4529,7 @@
         <v>45236</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4546,16 +4543,16 @@
         <v>45210</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="H74" s="4">
         <v>684.27</v>
@@ -4567,7 +4564,7 @@
         <v>45236</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4581,16 +4578,16 @@
         <v>45210</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="H75" s="4">
         <v>684.27</v>
@@ -4602,7 +4599,7 @@
         <v>45236</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4616,16 +4613,16 @@
         <v>45210</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="H76" s="4">
         <v>626.79</v>
@@ -4637,7 +4634,7 @@
         <v>45236</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/excel/teste_faturamento-teste-email-duplicado 1.xlsx
+++ b/excel/teste_faturamento-teste-email-duplicado 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0CC8F95-29AF-4143-A4BD-13EC80415AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7EA868-3C06-4DF3-A47C-2AB4F999A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="343">
   <si>
     <t>ID interno</t>
   </si>
@@ -116,9 +116,6 @@
     <t>LOJA BK PARNAÍBA, BKN 26203  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS  REF SETEMBRO</t>
   </si>
   <si>
-    <t>phnovaisnew@outlook.com</t>
-  </si>
-  <si>
     <t>1172 MICHEF COMERCIO DE ALIMENTOS LTDA - EPP</t>
   </si>
   <si>
@@ -170,7 +167,7 @@
     <t>MATOS E KRETLI- BKN 27721 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>bkto27721@gmail.com</t>
+    <t>teste@gmail.com</t>
   </si>
   <si>
     <t>012456</t>
@@ -185,9 +182,6 @@
     <t>LOJA RONDONÓLIS BKN 27968, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>contab.karla@estreladistribuidora.com.br</t>
-  </si>
-  <si>
     <t>012457</t>
   </si>
   <si>
@@ -212,766 +206,766 @@
     <t>LOJA ITABUNA BKN 27985  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>012459</t>
+  </si>
+  <si>
+    <t>1673 CAMPOS CHAVES PRODUTOS ALIMENTICIOS LTDA</t>
+  </si>
+  <si>
+    <t>34.798.861/0001-89</t>
+  </si>
+  <si>
+    <t>LOJA GOVERNADOR VALADARES, BKN 27996 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>setorfinanceiro.uniao@gmail.com</t>
+  </si>
+  <si>
+    <t>012460</t>
+  </si>
+  <si>
+    <t>1659 CONFORTI COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>26.390.660/0006-24</t>
+  </si>
+  <si>
+    <t>LOJA CAMPO GRANDE - MT  BKN 27986 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>financeiro@bkconforti.com</t>
+  </si>
+  <si>
+    <t>012461</t>
+  </si>
+  <si>
+    <t>1665 RCPM ALIMENTACAO LTDA</t>
+  </si>
+  <si>
+    <t>34.854.503/0001-46</t>
+  </si>
+  <si>
+    <t>LOJA OIAPOQUE BKN 25048 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>ricardo.de.campos@hotmail.com</t>
+  </si>
+  <si>
+    <t>012462</t>
+  </si>
+  <si>
+    <t>1597 BK BLESS COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>34.911.443/0003-18</t>
+  </si>
+  <si>
+    <t>LOJA ZAFFARI HÍPICA BKN 27993- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>financeiro.bk@empresasbless.com.br</t>
+  </si>
+  <si>
+    <t>012463</t>
+  </si>
+  <si>
+    <t>1667 BK BLESS COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>34.911.443/0002-37</t>
+  </si>
+  <si>
+    <t>LOJA JOÃO PESSOA SHOPPING BKN 27992 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012464</t>
+  </si>
+  <si>
+    <t>1686 3A LANCHONETE LTDA</t>
+  </si>
+  <si>
+    <t>34.953.955/0001-85</t>
+  </si>
+  <si>
+    <t>ALPHA SHOPPING BKN 27592 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>alphashopping.bk@gmail.com</t>
+  </si>
+  <si>
+    <t>012465</t>
+  </si>
+  <si>
+    <t>1676 ELM COMÉRCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35.561.003/0001-89</t>
+  </si>
+  <si>
+    <t>LOJA GREEN PLAZA - MG  BKN 28227 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>bkgreenplaza@gmail.com</t>
+  </si>
+  <si>
+    <t>012466</t>
+  </si>
+  <si>
+    <t>1713 REI DO HAMBURGUER LTDA</t>
+  </si>
+  <si>
+    <t>35.096.503/0001-97</t>
+  </si>
+  <si>
+    <t>LOJA FEIRÃO DA MODA, BKN 28149, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>patriciasatyrofinanceiro@feiraomodario.net.br</t>
+  </si>
+  <si>
+    <t>012467</t>
+  </si>
+  <si>
+    <t>1710 INFO BURGER COMERCIO DE ALIMENTOS UNIPESSOAL LTDA</t>
+  </si>
+  <si>
+    <t>35.062.517/0001-90</t>
+  </si>
+  <si>
+    <t>EXTRA EUSÉBIO BKN 27591-  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>tatielebarroso@infoxparticipacoes.com</t>
+  </si>
+  <si>
+    <t>012468</t>
+  </si>
+  <si>
+    <t>1650 ARQUIDUQUE ALVIM COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35.254.858/0001-67</t>
+  </si>
+  <si>
+    <t>LOJA SHOP PIER 21 BKN 21274  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>adm@grupoalvim.com.br</t>
+  </si>
+  <si>
+    <t>012469</t>
+  </si>
+  <si>
+    <t>1651 ESCUDEIRO ALVIM COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35.252.660/0001-44</t>
+  </si>
+  <si>
+    <t>LOJA CARREFOUR BRASILIA SUL BKN 20212 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012470</t>
+  </si>
+  <si>
+    <t>1657 CAVALEIRO ALVIM COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35.378.393/0001-56</t>
+  </si>
+  <si>
+    <t>LOJA SHOP VENÂNCIO BKN 25261-MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012471</t>
+  </si>
+  <si>
+    <t>1648 SENHOR ALVIM COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35.257.416/0001-74</t>
+  </si>
+  <si>
+    <t>LOJA IGUATEMI BRAS, BKN 23464  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012472</t>
+  </si>
+  <si>
+    <t>1595 BARAO ALVIM COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>34.840.241/0001-60</t>
+  </si>
+  <si>
+    <t>LOJA PLANALTINA, BKN 27984 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012473</t>
+  </si>
+  <si>
+    <t>1649 REGENTE ALVIM COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35.238.002/0001-06</t>
+  </si>
+  <si>
+    <t>ILR BRASÍLIA - ASA NORTE 201, BKN 19929 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012474</t>
+  </si>
+  <si>
+    <t>1658 VISCONDE COMERCIO DE ALIMENTOS LTDA ME</t>
+  </si>
+  <si>
+    <t>35.359.111/0001-73</t>
+  </si>
+  <si>
+    <t>LOJA CENTURY PLAZA BKN 21583 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012475</t>
+  </si>
+  <si>
+    <t>1220 VILLE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>29.217.358/0002-33</t>
+  </si>
+  <si>
+    <t>KSK ESTAÇÃO DA LAPA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>cs.sampaio91@hotmail.com</t>
+  </si>
+  <si>
+    <t>012476</t>
+  </si>
+  <si>
+    <t>1221 VILLE ALIMENTOS EIRELI - EPP</t>
+  </si>
+  <si>
+    <t>29.217.358/0001-52</t>
+  </si>
+  <si>
+    <t>SHOPPING PIEDADE, BKN 25191- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012477</t>
+  </si>
+  <si>
+    <t>1712 JDF NORDESTE EMPREENDIMENTO ALIMENTICIO LTDA</t>
+  </si>
+  <si>
+    <t>17.729.812/0003-37</t>
+  </si>
+  <si>
+    <t>BKN 28350 -LOJA SERRA TALHADA  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>jdfjodibe@jodibe.com.br</t>
+  </si>
+  <si>
+    <t>012478</t>
+  </si>
+  <si>
+    <t>1711 B &amp; B HAMBURGUERIA LTDA</t>
+  </si>
+  <si>
+    <t>35.063.036/0001-07</t>
+  </si>
+  <si>
+    <t>BKN 28289 - LOJA ARAPONGAS, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>beatriz@grupobeb.com</t>
+  </si>
+  <si>
+    <t>012479</t>
+  </si>
+  <si>
+    <t>1703 JIKALBK LANCHES LTDA</t>
+  </si>
+  <si>
+    <t>35.836.047/0001-74</t>
+  </si>
+  <si>
+    <t>LOJA K TOWN, BKN 28297- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>contas@jikalbk.com.br</t>
+  </si>
+  <si>
+    <t>012480</t>
+  </si>
+  <si>
+    <t>1116 GAMA HAMBURGUER REI LTDA</t>
+  </si>
+  <si>
+    <t>28.128.788/0001-35</t>
+  </si>
+  <si>
+    <t>GAMA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
+  </si>
+  <si>
+    <t>financeirobk12@gmail.com</t>
+  </si>
+  <si>
+    <t>012481</t>
+  </si>
+  <si>
+    <t>1117 HAMBURGUER REI LTDA</t>
+  </si>
+  <si>
+    <t>28.802.355/0001-13</t>
+  </si>
+  <si>
+    <t>GAMA ESTÁDIO -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012482</t>
+  </si>
+  <si>
+    <t>1061 BVS ALIMENTOS E CONGÊNERES EIRELI</t>
+  </si>
+  <si>
+    <t>31.856.290/0001-01</t>
+  </si>
+  <si>
+    <t>LOJA BUENA VISTA - BKN 26588 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>guilhermeqc@terra.com.br</t>
+  </si>
+  <si>
+    <t>012483</t>
+  </si>
+  <si>
+    <t>1140 HG6 FOODS COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>29.203.250/0001-00</t>
+  </si>
+  <si>
+    <t>LOJA ACLIMAÇÃO -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>nataliako@casabueno.com.br</t>
+  </si>
+  <si>
+    <t>012484</t>
+  </si>
+  <si>
+    <t>1141 HG6 FOODS COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>29.203.250/0002-91</t>
+  </si>
+  <si>
+    <t>BK POMPÉIA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012485</t>
+  </si>
+  <si>
+    <t>1149 JHR SERVICOS DE ALIMENTACAO LTDA - EPP </t>
+  </si>
+  <si>
+    <t>26.995.025/0001-66</t>
+  </si>
+  <si>
+    <t>VIA VERDE  SHOPPING -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>daf@grupoaguanaboca.com</t>
+  </si>
+  <si>
+    <t>012486</t>
+  </si>
+  <si>
+    <t>1852 SAINT HONORE COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>26.716.832/0008-79</t>
+  </si>
+  <si>
+    <t>LOJA TOLEDO, BKN 29286 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>luciane@sthonore.com.br</t>
+  </si>
+  <si>
+    <t>012487</t>
+  </si>
+  <si>
+    <t>1059 OLIMPIA FAST FOOD LTDA</t>
+  </si>
+  <si>
+    <t>31.248.938/0001-59</t>
+  </si>
+  <si>
+    <t>LOJA OLÍMPIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>financeiro03.olimpiapark@enjoyhoteis.com.br</t>
+  </si>
+  <si>
+    <t>012488</t>
+  </si>
+  <si>
+    <t>1060 BURGER KING RIVER SHOPPING EIRELI - ME</t>
+  </si>
+  <si>
+    <t>28.036.959/0001-04</t>
+  </si>
+  <si>
+    <t>RIVER - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>campus.10@hotmail.com</t>
+  </si>
+  <si>
+    <t>012489</t>
+  </si>
+  <si>
+    <t>1062 CBA COMERCIO DE ALIMENTOS LTDA - ME </t>
+  </si>
+  <si>
+    <t>26.222.495/0001-97</t>
+  </si>
+  <si>
+    <t>JUÁ GARDEN SHOPPING MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012490</t>
+  </si>
+  <si>
+    <t>1064 CONDE ALVIM COMERCIO DE ALIMENTOS LTDA - ME</t>
+  </si>
+  <si>
+    <t>28.993.561/0001-58</t>
+  </si>
+  <si>
+    <t>AGUAS CLARAS MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012491</t>
+  </si>
+  <si>
+    <t>1066 CONFORTI COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>26.390.660/0004-62</t>
+  </si>
+  <si>
+    <t>LOJA MASCARENHAS MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012492</t>
+  </si>
+  <si>
+    <t>1067 CONFORTI COMERCIO DE ALIMENTOS LTDA </t>
+  </si>
+  <si>
+    <t>26.390.660/0003-81</t>
+  </si>
+  <si>
+    <t>LOJA NSUL -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012493</t>
+  </si>
+  <si>
+    <t>1068 CONFORTI COMERCIO DE ALIMENTOS LTDA </t>
+  </si>
+  <si>
+    <t>26.390.660/0001-10</t>
+  </si>
+  <si>
+    <t>LOJA PENA - MMENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012494</t>
+  </si>
+  <si>
+    <t>1069 CONFORTI COMERCIO DE ALIMENTOS LTDA </t>
+  </si>
+  <si>
+    <t>26.390.660/0002-09</t>
+  </si>
+  <si>
+    <t>LOJA BOSQUE - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012495</t>
+  </si>
+  <si>
+    <t>1093 DUQUE ALVIM COMERCIO DE ALIMENTOS LTDA - ME</t>
+  </si>
+  <si>
+    <t>29.087.671/0001-13</t>
+  </si>
+  <si>
+    <t>LAGO SUL MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012496</t>
+  </si>
+  <si>
+    <t>1094 E. A. Dos SANTOS SOUSA EIRELI - ME</t>
+  </si>
+  <si>
+    <t>24.668.421/0001-53</t>
+  </si>
+  <si>
+    <t>PARAUPEBAS - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>financeiro.bkmab@gmail.com</t>
+  </si>
+  <si>
+    <t>012497</t>
+  </si>
+  <si>
+    <t>1120 GLADIADOR ALVIM COMERCIO DE ALIMENTOS LTDA - ME </t>
+  </si>
+  <si>
+    <t>28.953.109/0001-62</t>
+  </si>
+  <si>
+    <t>ASA SUL - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012498</t>
+  </si>
+  <si>
+    <t>1139 HF MOTA ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>31.006.458/0001-81</t>
+  </si>
+  <si>
+    <t>LOJA ÔNIX  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>mota@hfmota.com.br</t>
+  </si>
+  <si>
+    <t>012499</t>
+  </si>
+  <si>
+    <t>1142 IMPERADOR ALVIM COMERCIO DE ALIMENTOS LTDA - ME </t>
+  </si>
+  <si>
+    <t>26.428.809/0001-02</t>
+  </si>
+  <si>
+    <t>ASA NORTE MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012500</t>
+  </si>
+  <si>
+    <t>1166 LKL COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>29.830.339/0001-05</t>
+  </si>
+  <si>
+    <t>BK CARIRI  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>burgerkingcariri@hotmail.com</t>
+  </si>
+  <si>
+    <t>012501</t>
+  </si>
+  <si>
+    <t>1167 LORD ALVIM COMERCIO DE ALIMENTOS LTDA </t>
+  </si>
+  <si>
+    <t>26.332.112/0001-33</t>
+  </si>
+  <si>
+    <t>SUDOESTE BRASILIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012502</t>
+  </si>
+  <si>
+    <t>1168 M E A DOS SANTOS SANTOS EIRELI - EPP</t>
+  </si>
+  <si>
+    <t>28.440.986/0001-30</t>
+  </si>
+  <si>
+    <t>PATIO MARABA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012503</t>
+  </si>
+  <si>
+    <t>1173 MOREIRA &amp; AZEVEDO COMERCIAL LTDA - EPP</t>
+  </si>
+  <si>
+    <t>29.264.680/0001-32</t>
+  </si>
+  <si>
+    <t>PATIO MIX BAHIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>cdagf@hotmail.com</t>
+  </si>
+  <si>
+    <t>012504</t>
+  </si>
+  <si>
+    <t>1180 PAMPA RESTAURANTES LTDA</t>
+  </si>
+  <si>
+    <t>27.451.986/0006-87</t>
+  </si>
+  <si>
+    <t>FORT ATACADISTA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>bk.financeiro@pampa.net</t>
+  </si>
+  <si>
+    <t>012505</t>
+  </si>
+  <si>
+    <t>1181 PAMPA RESTAURANTES LTDA - EPP</t>
+  </si>
+  <si>
+    <t>27.451.986/0009-20</t>
+  </si>
+  <si>
+    <t>CACOAL MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012506</t>
+  </si>
+  <si>
+    <t>1183 PAMPA RESTAURANTES LTDA - EPP</t>
+  </si>
+  <si>
+    <t>27.451.986/0004-15</t>
+  </si>
+  <si>
+    <t>LOJA  TANGARÁ DA SERRA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012507</t>
+  </si>
+  <si>
+    <t>1184 PAMPA RESTAURANTES LTDA - EPP</t>
+  </si>
+  <si>
+    <t>27.451.986/0005-04</t>
+  </si>
+  <si>
+    <t>LOJA GABRIELA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012508</t>
+  </si>
+  <si>
+    <t>1185 PAMPA RESTAURANTES LTDA - EPP </t>
+  </si>
+  <si>
+    <t>27.451.986/0002-53</t>
+  </si>
+  <si>
+    <t>PORTO VELHO MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012509</t>
+  </si>
+  <si>
+    <t>1186 PAMPA RESTAURANTES LTDA - EPP </t>
+  </si>
+  <si>
+    <t>27.451.986/0003-34</t>
+  </si>
+  <si>
+    <t>LOJA QUIOSQUE - SUPERMERCADO COMPER  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012510</t>
+  </si>
+  <si>
+    <t>1188 PAMPA RESTAURANTES LTDA - EPP </t>
+  </si>
+  <si>
+    <t>27.451.986/0010-63</t>
+  </si>
+  <si>
+    <t>JI PARANA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012511</t>
+  </si>
+  <si>
+    <t>1189 PRINCE COMERCIO DE ALIMENTOS EIRELI - EPP</t>
+  </si>
+  <si>
+    <t>28.028.490/0001-53</t>
+  </si>
+  <si>
+    <t>SPIPE CALARGE  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012512</t>
+  </si>
+  <si>
+    <t>1190 PRINCIPE ALVIM COMERCIO DE ALIMENTOS EIRELI - ME</t>
+  </si>
+  <si>
+    <t>28.428.268/0001-48</t>
+  </si>
+  <si>
+    <t>CEILANDIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012513</t>
+  </si>
+  <si>
+    <t>1193 RCMI ALIMENTACAO LTDA - EPP </t>
+  </si>
+  <si>
+    <t>27.928.572/0001-91</t>
+  </si>
+  <si>
+    <t>UBERLANDIA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012514</t>
+  </si>
+  <si>
+    <t>1194 REI ALVIM COMERCIO DE ALIMENTOS EIRELI </t>
+  </si>
+  <si>
+    <t>26.075.154/0001-36</t>
+  </si>
+  <si>
+    <t>CALDAS NOVAS SHOPPING  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>012515</t>
+  </si>
+  <si>
+    <t>1196 RMF FAST FOODS EIRELI</t>
+  </si>
+  <si>
+    <t>20.255.764/0007-20</t>
+  </si>
+  <si>
+    <t>ILHÉUS CENTRO  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS  REF SETEMBRO</t>
+  </si>
+  <si>
     <t>paulo.vieira@grupormfba.com.br</t>
-  </si>
-  <si>
-    <t>012459</t>
-  </si>
-  <si>
-    <t>1673 CAMPOS CHAVES PRODUTOS ALIMENTICIOS LTDA</t>
-  </si>
-  <si>
-    <t>34.798.861/0001-89</t>
-  </si>
-  <si>
-    <t>LOJA GOVERNADOR VALADARES, BKN 27996 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>setorfinanceiro.uniao@gmail.com</t>
-  </si>
-  <si>
-    <t>012460</t>
-  </si>
-  <si>
-    <t>1659 CONFORTI COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>26.390.660/0006-24</t>
-  </si>
-  <si>
-    <t>LOJA CAMPO GRANDE - MT  BKN 27986 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>financeiro@bkconforti.com</t>
-  </si>
-  <si>
-    <t>012461</t>
-  </si>
-  <si>
-    <t>1665 RCPM ALIMENTACAO LTDA</t>
-  </si>
-  <si>
-    <t>34.854.503/0001-46</t>
-  </si>
-  <si>
-    <t>LOJA OIAPOQUE BKN 25048 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>ricardo.de.campos@hotmail.com</t>
-  </si>
-  <si>
-    <t>012462</t>
-  </si>
-  <si>
-    <t>1597 BK BLESS COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>34.911.443/0003-18</t>
-  </si>
-  <si>
-    <t>LOJA ZAFFARI HÍPICA BKN 27993- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>financeiro.bk@empresasbless.com.br</t>
-  </si>
-  <si>
-    <t>012463</t>
-  </si>
-  <si>
-    <t>1667 BK BLESS COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>34.911.443/0002-37</t>
-  </si>
-  <si>
-    <t>LOJA JOÃO PESSOA SHOPPING BKN 27992 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012464</t>
-  </si>
-  <si>
-    <t>1686 3A LANCHONETE LTDA</t>
-  </si>
-  <si>
-    <t>34.953.955/0001-85</t>
-  </si>
-  <si>
-    <t>ALPHA SHOPPING BKN 27592 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>alphashopping.bk@gmail.com</t>
-  </si>
-  <si>
-    <t>012465</t>
-  </si>
-  <si>
-    <t>1676 ELM COMÉRCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>35.561.003/0001-89</t>
-  </si>
-  <si>
-    <t>LOJA GREEN PLAZA - MG  BKN 28227 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>bkgreenplaza@gmail.com</t>
-  </si>
-  <si>
-    <t>012466</t>
-  </si>
-  <si>
-    <t>1713 REI DO HAMBURGUER LTDA</t>
-  </si>
-  <si>
-    <t>35.096.503/0001-97</t>
-  </si>
-  <si>
-    <t>LOJA FEIRÃO DA MODA, BKN 28149, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>patriciasatyrofinanceiro@feiraomodario.net.br</t>
-  </si>
-  <si>
-    <t>012467</t>
-  </si>
-  <si>
-    <t>1710 INFO BURGER COMERCIO DE ALIMENTOS UNIPESSOAL LTDA</t>
-  </si>
-  <si>
-    <t>35.062.517/0001-90</t>
-  </si>
-  <si>
-    <t>EXTRA EUSÉBIO BKN 27591-  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>tatielebarroso@infoxparticipacoes.com</t>
-  </si>
-  <si>
-    <t>012468</t>
-  </si>
-  <si>
-    <t>1650 ARQUIDUQUE ALVIM COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>35.254.858/0001-67</t>
-  </si>
-  <si>
-    <t>LOJA SHOP PIER 21 BKN 21274  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>adm@grupoalvim.com.br</t>
-  </si>
-  <si>
-    <t>012469</t>
-  </si>
-  <si>
-    <t>1651 ESCUDEIRO ALVIM COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>35.252.660/0001-44</t>
-  </si>
-  <si>
-    <t>LOJA CARREFOUR BRASILIA SUL BKN 20212 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012470</t>
-  </si>
-  <si>
-    <t>1657 CAVALEIRO ALVIM COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>35.378.393/0001-56</t>
-  </si>
-  <si>
-    <t>LOJA SHOP VENÂNCIO BKN 25261-MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012471</t>
-  </si>
-  <si>
-    <t>1648 SENHOR ALVIM COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>35.257.416/0001-74</t>
-  </si>
-  <si>
-    <t>LOJA IGUATEMI BRAS, BKN 23464  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012472</t>
-  </si>
-  <si>
-    <t>1595 BARAO ALVIM COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>34.840.241/0001-60</t>
-  </si>
-  <si>
-    <t>LOJA PLANALTINA, BKN 27984 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012473</t>
-  </si>
-  <si>
-    <t>1649 REGENTE ALVIM COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>35.238.002/0001-06</t>
-  </si>
-  <si>
-    <t>ILR BRASÍLIA - ASA NORTE 201, BKN 19929 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012474</t>
-  </si>
-  <si>
-    <t>1658 VISCONDE COMERCIO DE ALIMENTOS LTDA ME</t>
-  </si>
-  <si>
-    <t>35.359.111/0001-73</t>
-  </si>
-  <si>
-    <t>LOJA CENTURY PLAZA BKN 21583 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012475</t>
-  </si>
-  <si>
-    <t>1220 VILLE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>29.217.358/0002-33</t>
-  </si>
-  <si>
-    <t>KSK ESTAÇÃO DA LAPA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>cs.sampaio91@hotmail.com</t>
-  </si>
-  <si>
-    <t>012476</t>
-  </si>
-  <si>
-    <t>1221 VILLE ALIMENTOS EIRELI - EPP</t>
-  </si>
-  <si>
-    <t>29.217.358/0001-52</t>
-  </si>
-  <si>
-    <t>SHOPPING PIEDADE, BKN 25191- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012477</t>
-  </si>
-  <si>
-    <t>1712 JDF NORDESTE EMPREENDIMENTO ALIMENTICIO LTDA</t>
-  </si>
-  <si>
-    <t>17.729.812/0003-37</t>
-  </si>
-  <si>
-    <t>BKN 28350 -LOJA SERRA TALHADA  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>jdfjodibe@jodibe.com.br</t>
-  </si>
-  <si>
-    <t>012478</t>
-  </si>
-  <si>
-    <t>1711 B &amp; B HAMBURGUERIA LTDA</t>
-  </si>
-  <si>
-    <t>35.063.036/0001-07</t>
-  </si>
-  <si>
-    <t>BKN 28289 - LOJA ARAPONGAS, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>beatriz@grupobeb.com</t>
-  </si>
-  <si>
-    <t>012479</t>
-  </si>
-  <si>
-    <t>1703 JIKALBK LANCHES LTDA</t>
-  </si>
-  <si>
-    <t>35.836.047/0001-74</t>
-  </si>
-  <si>
-    <t>LOJA K TOWN, BKN 28297- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>contas@jikalbk.com.br</t>
-  </si>
-  <si>
-    <t>012480</t>
-  </si>
-  <si>
-    <t>1116 GAMA HAMBURGUER REI LTDA</t>
-  </si>
-  <si>
-    <t>28.128.788/0001-35</t>
-  </si>
-  <si>
-    <t>GAMA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
-  </si>
-  <si>
-    <t>financeirobk12@gmail.com</t>
-  </si>
-  <si>
-    <t>012481</t>
-  </si>
-  <si>
-    <t>1117 HAMBURGUER REI LTDA</t>
-  </si>
-  <si>
-    <t>28.802.355/0001-13</t>
-  </si>
-  <si>
-    <t>GAMA ESTÁDIO -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012482</t>
-  </si>
-  <si>
-    <t>1061 BVS ALIMENTOS E CONGÊNERES EIRELI</t>
-  </si>
-  <si>
-    <t>31.856.290/0001-01</t>
-  </si>
-  <si>
-    <t>LOJA BUENA VISTA - BKN 26588 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>guilhermeqc@terra.com.br</t>
-  </si>
-  <si>
-    <t>012483</t>
-  </si>
-  <si>
-    <t>1140 HG6 FOODS COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>29.203.250/0001-00</t>
-  </si>
-  <si>
-    <t>LOJA ACLIMAÇÃO -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>nataliako@casabueno.com.br</t>
-  </si>
-  <si>
-    <t>012484</t>
-  </si>
-  <si>
-    <t>1141 HG6 FOODS COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>29.203.250/0002-91</t>
-  </si>
-  <si>
-    <t>BK POMPÉIA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012485</t>
-  </si>
-  <si>
-    <t>1149 JHR SERVICOS DE ALIMENTACAO LTDA - EPP </t>
-  </si>
-  <si>
-    <t>26.995.025/0001-66</t>
-  </si>
-  <si>
-    <t>VIA VERDE  SHOPPING -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>daf@grupoaguanaboca.com</t>
-  </si>
-  <si>
-    <t>012486</t>
-  </si>
-  <si>
-    <t>1852 SAINT HONORE COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>26.716.832/0008-79</t>
-  </si>
-  <si>
-    <t>LOJA TOLEDO, BKN 29286 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>luciane@sthonore.com.br</t>
-  </si>
-  <si>
-    <t>012487</t>
-  </si>
-  <si>
-    <t>1059 OLIMPIA FAST FOOD LTDA</t>
-  </si>
-  <si>
-    <t>31.248.938/0001-59</t>
-  </si>
-  <si>
-    <t>LOJA OLÍMPIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>financeiro03.olimpiapark@enjoyhoteis.com.br</t>
-  </si>
-  <si>
-    <t>012488</t>
-  </si>
-  <si>
-    <t>1060 BURGER KING RIVER SHOPPING EIRELI - ME</t>
-  </si>
-  <si>
-    <t>28.036.959/0001-04</t>
-  </si>
-  <si>
-    <t>RIVER - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>campus.10@hotmail.com</t>
-  </si>
-  <si>
-    <t>012489</t>
-  </si>
-  <si>
-    <t>1062 CBA COMERCIO DE ALIMENTOS LTDA - ME </t>
-  </si>
-  <si>
-    <t>26.222.495/0001-97</t>
-  </si>
-  <si>
-    <t>JUÁ GARDEN SHOPPING MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012490</t>
-  </si>
-  <si>
-    <t>1064 CONDE ALVIM COMERCIO DE ALIMENTOS LTDA - ME</t>
-  </si>
-  <si>
-    <t>28.993.561/0001-58</t>
-  </si>
-  <si>
-    <t>AGUAS CLARAS MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012491</t>
-  </si>
-  <si>
-    <t>1066 CONFORTI COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>26.390.660/0004-62</t>
-  </si>
-  <si>
-    <t>LOJA MASCARENHAS MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012492</t>
-  </si>
-  <si>
-    <t>1067 CONFORTI COMERCIO DE ALIMENTOS LTDA </t>
-  </si>
-  <si>
-    <t>26.390.660/0003-81</t>
-  </si>
-  <si>
-    <t>LOJA NSUL -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012493</t>
-  </si>
-  <si>
-    <t>1068 CONFORTI COMERCIO DE ALIMENTOS LTDA </t>
-  </si>
-  <si>
-    <t>26.390.660/0001-10</t>
-  </si>
-  <si>
-    <t>LOJA PENA - MMENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012494</t>
-  </si>
-  <si>
-    <t>1069 CONFORTI COMERCIO DE ALIMENTOS LTDA </t>
-  </si>
-  <si>
-    <t>26.390.660/0002-09</t>
-  </si>
-  <si>
-    <t>LOJA BOSQUE - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012495</t>
-  </si>
-  <si>
-    <t>1093 DUQUE ALVIM COMERCIO DE ALIMENTOS LTDA - ME</t>
-  </si>
-  <si>
-    <t>29.087.671/0001-13</t>
-  </si>
-  <si>
-    <t>LAGO SUL MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012496</t>
-  </si>
-  <si>
-    <t>1094 E. A. Dos SANTOS SOUSA EIRELI - ME</t>
-  </si>
-  <si>
-    <t>24.668.421/0001-53</t>
-  </si>
-  <si>
-    <t>PARAUPEBAS - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>financeiro.bkmab@gmail.com</t>
-  </si>
-  <si>
-    <t>012497</t>
-  </si>
-  <si>
-    <t>1120 GLADIADOR ALVIM COMERCIO DE ALIMENTOS LTDA - ME </t>
-  </si>
-  <si>
-    <t>28.953.109/0001-62</t>
-  </si>
-  <si>
-    <t>ASA SUL - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012498</t>
-  </si>
-  <si>
-    <t>1139 HF MOTA ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>31.006.458/0001-81</t>
-  </si>
-  <si>
-    <t>LOJA ÔNIX  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>mota@hfmota.com.br</t>
-  </si>
-  <si>
-    <t>012499</t>
-  </si>
-  <si>
-    <t>1142 IMPERADOR ALVIM COMERCIO DE ALIMENTOS LTDA - ME </t>
-  </si>
-  <si>
-    <t>26.428.809/0001-02</t>
-  </si>
-  <si>
-    <t>ASA NORTE MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012500</t>
-  </si>
-  <si>
-    <t>1166 LKL COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>29.830.339/0001-05</t>
-  </si>
-  <si>
-    <t>BK CARIRI  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>burgerkingcariri@hotmail.com</t>
-  </si>
-  <si>
-    <t>012501</t>
-  </si>
-  <si>
-    <t>1167 LORD ALVIM COMERCIO DE ALIMENTOS LTDA </t>
-  </si>
-  <si>
-    <t>26.332.112/0001-33</t>
-  </si>
-  <si>
-    <t>SUDOESTE BRASILIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012502</t>
-  </si>
-  <si>
-    <t>1168 M E A DOS SANTOS SANTOS EIRELI - EPP</t>
-  </si>
-  <si>
-    <t>28.440.986/0001-30</t>
-  </si>
-  <si>
-    <t>PATIO MARABA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012503</t>
-  </si>
-  <si>
-    <t>1173 MOREIRA &amp; AZEVEDO COMERCIAL LTDA - EPP</t>
-  </si>
-  <si>
-    <t>29.264.680/0001-32</t>
-  </si>
-  <si>
-    <t>PATIO MIX BAHIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>cdagf@hotmail.com</t>
-  </si>
-  <si>
-    <t>012504</t>
-  </si>
-  <si>
-    <t>1180 PAMPA RESTAURANTES LTDA</t>
-  </si>
-  <si>
-    <t>27.451.986/0006-87</t>
-  </si>
-  <si>
-    <t>FORT ATACADISTA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>bk.financeiro@pampa.net</t>
-  </si>
-  <si>
-    <t>012505</t>
-  </si>
-  <si>
-    <t>1181 PAMPA RESTAURANTES LTDA - EPP</t>
-  </si>
-  <si>
-    <t>27.451.986/0009-20</t>
-  </si>
-  <si>
-    <t>CACOAL MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012506</t>
-  </si>
-  <si>
-    <t>1183 PAMPA RESTAURANTES LTDA - EPP</t>
-  </si>
-  <si>
-    <t>27.451.986/0004-15</t>
-  </si>
-  <si>
-    <t>LOJA  TANGARÁ DA SERRA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012507</t>
-  </si>
-  <si>
-    <t>1184 PAMPA RESTAURANTES LTDA - EPP</t>
-  </si>
-  <si>
-    <t>27.451.986/0005-04</t>
-  </si>
-  <si>
-    <t>LOJA GABRIELA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012508</t>
-  </si>
-  <si>
-    <t>1185 PAMPA RESTAURANTES LTDA - EPP </t>
-  </si>
-  <si>
-    <t>27.451.986/0002-53</t>
-  </si>
-  <si>
-    <t>PORTO VELHO MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012509</t>
-  </si>
-  <si>
-    <t>1186 PAMPA RESTAURANTES LTDA - EPP </t>
-  </si>
-  <si>
-    <t>27.451.986/0003-34</t>
-  </si>
-  <si>
-    <t>LOJA QUIOSQUE - SUPERMERCADO COMPER  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012510</t>
-  </si>
-  <si>
-    <t>1188 PAMPA RESTAURANTES LTDA - EPP </t>
-  </si>
-  <si>
-    <t>27.451.986/0010-63</t>
-  </si>
-  <si>
-    <t>JI PARANA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012511</t>
-  </si>
-  <si>
-    <t>1189 PRINCE COMERCIO DE ALIMENTOS EIRELI - EPP</t>
-  </si>
-  <si>
-    <t>28.028.490/0001-53</t>
-  </si>
-  <si>
-    <t>SPIPE CALARGE  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012512</t>
-  </si>
-  <si>
-    <t>1190 PRINCIPE ALVIM COMERCIO DE ALIMENTOS EIRELI - ME</t>
-  </si>
-  <si>
-    <t>28.428.268/0001-48</t>
-  </si>
-  <si>
-    <t>CEILANDIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012513</t>
-  </si>
-  <si>
-    <t>1193 RCMI ALIMENTACAO LTDA - EPP </t>
-  </si>
-  <si>
-    <t>27.928.572/0001-91</t>
-  </si>
-  <si>
-    <t>UBERLANDIA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012514</t>
-  </si>
-  <si>
-    <t>1194 REI ALVIM COMERCIO DE ALIMENTOS EIRELI </t>
-  </si>
-  <si>
-    <t>26.075.154/0001-36</t>
-  </si>
-  <si>
-    <t>CALDAS NOVAS SHOPPING  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>012515</t>
-  </si>
-  <si>
-    <t>1196 RMF FAST FOODS EIRELI</t>
-  </si>
-  <si>
-    <t>20.255.764/0007-20</t>
-  </si>
-  <si>
-    <t>ILHÉUS CENTRO  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS  REF SETEMBRO</t>
   </si>
   <si>
     <t>012516</t>
@@ -1080,7 +1074,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1233,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1590,7 +1590,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1599,6 +1599,7 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1959,7 +1960,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2149,7 +2150,7 @@
         <v>45236</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2166,13 +2167,13 @@
         <v>12452</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="4">
         <v>644.74</v>
@@ -2184,7 +2185,7 @@
         <v>45236</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2198,16 +2199,16 @@
         <v>45210</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="4">
         <v>688.64</v>
@@ -2219,7 +2220,7 @@
         <v>45245</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2233,16 +2234,16 @@
         <v>45210</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="4">
         <v>684.27</v>
@@ -2254,7 +2255,7 @@
         <v>45236</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2268,16 +2269,16 @@
         <v>45210</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="4">
         <v>651.22</v>
@@ -2288,8 +2289,8 @@
       <c r="J9" s="3">
         <v>45236</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
+      <c r="K9" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2303,16 +2304,16 @@
         <v>45210</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H10" s="4">
         <v>637.12</v>
@@ -2323,8 +2324,8 @@
       <c r="J10" s="3">
         <v>45240</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
+      <c r="K10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2338,16 +2339,16 @@
         <v>45210</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H11" s="4">
         <v>636.41999999999996</v>
@@ -2358,8 +2359,8 @@
       <c r="J11" s="3">
         <v>45240</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>48</v>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2373,16 +2374,16 @@
         <v>45210</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="4">
         <v>637.12</v>
@@ -2393,8 +2394,8 @@
       <c r="J12" s="3">
         <v>45236</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>57</v>
+      <c r="K12" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2408,16 +2409,16 @@
         <v>45210</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="4">
         <v>637.12</v>
@@ -2429,7 +2430,7 @@
         <v>45236</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2443,16 +2444,16 @@
         <v>45210</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H14" s="4">
         <v>637.12</v>
@@ -2464,7 +2465,7 @@
         <v>45236</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2478,16 +2479,16 @@
         <v>45210</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H15" s="4">
         <v>651.22</v>
@@ -2499,7 +2500,7 @@
         <v>45236</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2513,16 +2514,16 @@
         <v>45210</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="4">
         <v>637.12</v>
@@ -2534,7 +2535,7 @@
         <v>45236</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2548,16 +2549,16 @@
         <v>45210</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="4">
         <v>601.62</v>
@@ -2569,7 +2570,7 @@
         <v>45236</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2583,16 +2584,16 @@
         <v>45210</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H18" s="4">
         <v>637.12</v>
@@ -2604,7 +2605,7 @@
         <v>45236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2618,16 +2619,16 @@
         <v>45210</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="4">
         <v>637.12</v>
@@ -2639,7 +2640,7 @@
         <v>45236</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2653,16 +2654,16 @@
         <v>45210</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="4">
         <v>636.29999999999995</v>
@@ -2674,7 +2675,7 @@
         <v>45236</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2688,16 +2689,16 @@
         <v>45210</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="H21" s="4">
         <v>651.22</v>
@@ -2709,7 +2710,7 @@
         <v>45236</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2723,16 +2724,16 @@
         <v>45210</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="4">
         <v>651.22</v>
@@ -2744,7 +2745,7 @@
         <v>45236</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2758,16 +2759,16 @@
         <v>45210</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="4">
         <v>651.22</v>
@@ -2779,7 +2780,7 @@
         <v>45236</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2793,16 +2794,16 @@
         <v>45210</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="H24" s="4">
         <v>651.22</v>
@@ -2814,7 +2815,7 @@
         <v>45236</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2828,16 +2829,16 @@
         <v>45210</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="4">
         <v>651.22</v>
@@ -2849,7 +2850,7 @@
         <v>45236</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2863,16 +2864,16 @@
         <v>45210</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="4">
         <v>637.12</v>
@@ -2884,7 +2885,7 @@
         <v>45236</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2898,16 +2899,16 @@
         <v>45210</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H27" s="4">
         <v>637.12</v>
@@ -2919,7 +2920,7 @@
         <v>45236</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2933,16 +2934,16 @@
         <v>45210</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="H28" s="4">
         <v>651.22</v>
@@ -2954,7 +2955,7 @@
         <v>45236</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2968,16 +2969,16 @@
         <v>45210</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H29" s="4">
         <v>370.66</v>
@@ -2989,7 +2990,7 @@
         <v>45245</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3003,16 +3004,16 @@
         <v>45210</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="H30" s="4">
         <v>636.36</v>
@@ -3024,7 +3025,7 @@
         <v>45245</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3038,16 +3039,16 @@
         <v>45210</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H31" s="4">
         <v>688.64</v>
@@ -3059,7 +3060,7 @@
         <v>45236</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3073,16 +3074,16 @@
         <v>45210</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H32" s="4">
         <v>688.64</v>
@@ -3094,7 +3095,7 @@
         <v>45236</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3108,16 +3109,16 @@
         <v>45210</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="H33" s="4">
         <v>694.42</v>
@@ -3129,7 +3130,7 @@
         <v>45236</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3143,16 +3144,16 @@
         <v>45210</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="H34" s="4">
         <v>684.27</v>
@@ -3164,7 +3165,7 @@
         <v>45245</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3178,16 +3179,16 @@
         <v>45210</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H35" s="4">
         <v>637.12</v>
@@ -3199,7 +3200,7 @@
         <v>45245</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3213,16 +3214,16 @@
         <v>45210</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H36" s="4">
         <v>637.12</v>
@@ -3234,7 +3235,7 @@
         <v>45245</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3248,16 +3249,16 @@
         <v>45210</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="H37" s="4">
         <v>637.12</v>
@@ -3269,7 +3270,7 @@
         <v>45236</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3283,16 +3284,16 @@
         <v>45210</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H38" s="4">
         <v>635.29999999999995</v>
@@ -3304,7 +3305,7 @@
         <v>45236</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3318,16 +3319,16 @@
         <v>45210</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H39" s="4">
         <v>629.6</v>
@@ -3339,7 +3340,7 @@
         <v>45236</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3353,16 +3354,16 @@
         <v>45210</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H40" s="4">
         <v>637.12</v>
@@ -3374,7 +3375,7 @@
         <v>45245</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3388,16 +3389,16 @@
         <v>45210</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="H41" s="4">
         <v>601.62</v>
@@ -3409,7 +3410,7 @@
         <v>45236</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3423,16 +3424,16 @@
         <v>45210</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H42" s="4">
         <v>630.11</v>
@@ -3444,7 +3445,7 @@
         <v>45236</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3458,16 +3459,16 @@
         <v>45210</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="H43" s="4">
         <v>651.22</v>
@@ -3479,7 +3480,7 @@
         <v>45236</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3493,16 +3494,16 @@
         <v>45210</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H44" s="4">
         <v>601.62</v>
@@ -3514,7 +3515,7 @@
         <v>45236</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3528,16 +3529,16 @@
         <v>45210</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="H45" s="4">
         <v>630.11</v>
@@ -3549,7 +3550,7 @@
         <v>45236</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3563,16 +3564,16 @@
         <v>45210</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="H46" s="4">
         <v>630.11</v>
@@ -3584,7 +3585,7 @@
         <v>45236</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3598,16 +3599,16 @@
         <v>45210</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="H47" s="4">
         <v>637.12</v>
@@ -3619,7 +3620,7 @@
         <v>45236</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3633,16 +3634,16 @@
         <v>45210</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="H48" s="4">
         <v>637.12</v>
@@ -3654,7 +3655,7 @@
         <v>45236</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3668,16 +3669,16 @@
         <v>45210</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="H49" s="4">
         <v>637.12</v>
@@ -3689,7 +3690,7 @@
         <v>45236</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3703,16 +3704,16 @@
         <v>45210</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="H50" s="4">
         <v>636.41999999999996</v>
@@ -3724,7 +3725,7 @@
         <v>45236</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3738,16 +3739,16 @@
         <v>45210</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="H51" s="4">
         <v>651.22</v>
@@ -3759,7 +3760,7 @@
         <v>45236</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3773,16 +3774,16 @@
         <v>45210</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="H52" s="4">
         <v>651.22</v>
@@ -3794,7 +3795,7 @@
         <v>45236</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3808,16 +3809,16 @@
         <v>45210</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="H53" s="4">
         <v>636.41999999999996</v>
@@ -3829,7 +3830,7 @@
         <v>45236</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3843,16 +3844,16 @@
         <v>45210</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="H54" s="4">
         <v>625.29999999999995</v>
@@ -3864,7 +3865,7 @@
         <v>45236</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3878,16 +3879,16 @@
         <v>45210</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="H55" s="4">
         <v>636.41999999999996</v>
@@ -3899,7 +3900,7 @@
         <v>45236</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3913,16 +3914,16 @@
         <v>45210</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="H56" s="4">
         <v>637.12</v>
@@ -3934,7 +3935,7 @@
         <v>45236</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3948,16 +3949,16 @@
         <v>45210</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="H57" s="4">
         <v>637.12</v>
@@ -3969,7 +3970,7 @@
         <v>45236</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3983,16 +3984,16 @@
         <v>45210</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H58" s="4">
         <v>601.62</v>
@@ -4004,7 +4005,7 @@
         <v>45236</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4018,16 +4019,16 @@
         <v>45210</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H59" s="4">
         <v>636.41999999999996</v>
@@ -4039,7 +4040,7 @@
         <v>45236</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4053,16 +4054,16 @@
         <v>45210</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H60" s="4">
         <v>637.12</v>
@@ -4074,7 +4075,7 @@
         <v>45236</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4088,16 +4089,16 @@
         <v>45210</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H61" s="4">
         <v>601.62</v>
@@ -4109,7 +4110,7 @@
         <v>45236</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4123,16 +4124,16 @@
         <v>45210</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="H62" s="4">
         <v>644.74</v>
@@ -4144,7 +4145,7 @@
         <v>45236</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4158,16 +4159,16 @@
         <v>45210</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="H63" s="4">
         <v>636.41999999999996</v>
@@ -4179,7 +4180,7 @@
         <v>45236</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4193,16 +4194,16 @@
         <v>45210</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="H64" s="4">
         <v>636.41999999999996</v>
@@ -4214,7 +4215,7 @@
         <v>45236</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4228,16 +4229,16 @@
         <v>45210</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="H65" s="4">
         <v>644.74</v>
@@ -4249,7 +4250,7 @@
         <v>45236</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4263,16 +4264,16 @@
         <v>45210</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H66" s="4">
         <v>651.22</v>
@@ -4284,7 +4285,7 @@
         <v>45236</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4298,16 +4299,16 @@
         <v>45210</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="H67" s="4">
         <v>644.74</v>
@@ -4319,7 +4320,7 @@
         <v>45236</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4333,16 +4334,16 @@
         <v>45210</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="H68" s="4">
         <v>688.64</v>
@@ -4354,7 +4355,7 @@
         <v>45236</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4368,16 +4369,16 @@
         <v>45210</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="H69" s="4">
         <v>644.74</v>
@@ -4389,7 +4390,7 @@
         <v>45236</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4403,16 +4404,16 @@
         <v>45210</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="H70" s="4">
         <v>626.79</v>
@@ -4424,7 +4425,7 @@
         <v>45236</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4438,16 +4439,16 @@
         <v>45210</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="H71" s="4">
         <v>688.64</v>
@@ -4459,7 +4460,7 @@
         <v>45236</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4473,16 +4474,16 @@
         <v>45210</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="H72" s="4">
         <v>637.12</v>
@@ -4494,7 +4495,7 @@
         <v>45236</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4508,16 +4509,16 @@
         <v>45210</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="H73" s="4">
         <v>684.27</v>
@@ -4529,7 +4530,7 @@
         <v>45236</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4543,16 +4544,16 @@
         <v>45210</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="H74" s="4">
         <v>684.27</v>
@@ -4564,7 +4565,7 @@
         <v>45236</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4578,16 +4579,16 @@
         <v>45210</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="H75" s="4">
         <v>684.27</v>
@@ -4599,7 +4600,7 @@
         <v>45236</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4613,16 +4614,16 @@
         <v>45210</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="H76" s="4">
         <v>626.79</v>
@@ -4634,7 +4635,7 @@
         <v>45236</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4647,6 +4648,7 @@
     <hyperlink ref="K6" r:id="rId5" xr:uid="{F667B957-6845-4FAC-A527-A8016C4772C2}"/>
     <hyperlink ref="K4" r:id="rId6" xr:uid="{F6DBB2CC-913F-4D8F-B3F6-AE7014BCF2E3}"/>
     <hyperlink ref="K3" r:id="rId7" xr:uid="{4AAF3CF8-9906-4998-8E72-B74B4315D10F}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{3F57EEB6-3EA6-45C4-A964-6995F699D159}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/excel/teste_faturamento-teste-email-duplicado 1.xlsx
+++ b/excel/teste_faturamento-teste-email-duplicado 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7EA868-3C06-4DF3-A47C-2AB4F999A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF40EEE3-9214-420E-92BA-BD3AA8AC05BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="341">
   <si>
     <t>ID interno</t>
   </si>
@@ -128,9 +128,6 @@
     <t>phnovais7@gmail.com</t>
   </si>
   <si>
-    <t>012453</t>
-  </si>
-  <si>
     <t>1070 D. A. BAPTISTA LANCHES</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>phlastforall@gmail.com</t>
-  </si>
-  <si>
-    <t>012454</t>
   </si>
   <si>
     <t>1567 FAMI COMERCIO DE ALIMENTOS LTDA</t>
@@ -1960,7 +1954,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2198,17 +2192,17 @@
       <c r="C7" s="3">
         <v>45210</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>12453</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>688.64</v>
@@ -2220,10 +2214,10 @@
         <v>45245</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>515824</v>
       </c>
@@ -2233,17 +2227,17 @@
       <c r="C8" s="3">
         <v>45210</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>12454</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="4">
         <v>684.27</v>
@@ -2255,7 +2249,7 @@
         <v>45236</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2269,16 +2263,16 @@
         <v>45210</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="4">
         <v>651.22</v>
@@ -2290,7 +2284,7 @@
         <v>45236</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2304,16 +2298,16 @@
         <v>45210</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="4">
         <v>637.12</v>
@@ -2325,7 +2319,7 @@
         <v>45240</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2339,16 +2333,16 @@
         <v>45210</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="4">
         <v>636.41999999999996</v>
@@ -2360,7 +2354,7 @@
         <v>45240</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2374,16 +2368,16 @@
         <v>45210</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="4">
         <v>637.12</v>
@@ -2395,7 +2389,7 @@
         <v>45236</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2409,16 +2403,16 @@
         <v>45210</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="4">
         <v>637.12</v>
@@ -2430,7 +2424,7 @@
         <v>45236</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2444,16 +2438,16 @@
         <v>45210</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H14" s="4">
         <v>637.12</v>
@@ -2465,7 +2459,7 @@
         <v>45236</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2479,16 +2473,16 @@
         <v>45210</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H15" s="4">
         <v>651.22</v>
@@ -2500,7 +2494,7 @@
         <v>45236</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2514,16 +2508,16 @@
         <v>45210</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="4">
         <v>637.12</v>
@@ -2535,7 +2529,7 @@
         <v>45236</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2549,16 +2543,16 @@
         <v>45210</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="4">
         <v>601.62</v>
@@ -2570,7 +2564,7 @@
         <v>45236</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2584,16 +2578,16 @@
         <v>45210</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H18" s="4">
         <v>637.12</v>
@@ -2605,7 +2599,7 @@
         <v>45236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2619,16 +2613,16 @@
         <v>45210</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="4">
         <v>637.12</v>
@@ -2640,7 +2634,7 @@
         <v>45236</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2654,16 +2648,16 @@
         <v>45210</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H20" s="4">
         <v>636.29999999999995</v>
@@ -2675,7 +2669,7 @@
         <v>45236</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2689,16 +2683,16 @@
         <v>45210</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H21" s="4">
         <v>651.22</v>
@@ -2710,7 +2704,7 @@
         <v>45236</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2724,16 +2718,16 @@
         <v>45210</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H22" s="4">
         <v>651.22</v>
@@ -2745,7 +2739,7 @@
         <v>45236</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2759,16 +2753,16 @@
         <v>45210</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H23" s="4">
         <v>651.22</v>
@@ -2780,7 +2774,7 @@
         <v>45236</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2794,16 +2788,16 @@
         <v>45210</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="H24" s="4">
         <v>651.22</v>
@@ -2815,7 +2809,7 @@
         <v>45236</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2829,16 +2823,16 @@
         <v>45210</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="4">
         <v>651.22</v>
@@ -2850,7 +2844,7 @@
         <v>45236</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2864,16 +2858,16 @@
         <v>45210</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="4">
         <v>637.12</v>
@@ -2885,7 +2879,7 @@
         <v>45236</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2899,16 +2893,16 @@
         <v>45210</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H27" s="4">
         <v>637.12</v>
@@ -2920,7 +2914,7 @@
         <v>45236</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2934,16 +2928,16 @@
         <v>45210</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="H28" s="4">
         <v>651.22</v>
@@ -2955,7 +2949,7 @@
         <v>45236</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2969,16 +2963,16 @@
         <v>45210</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="H29" s="4">
         <v>370.66</v>
@@ -2990,7 +2984,7 @@
         <v>45245</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3004,16 +2998,16 @@
         <v>45210</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H30" s="4">
         <v>636.36</v>
@@ -3025,7 +3019,7 @@
         <v>45245</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3039,16 +3033,16 @@
         <v>45210</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H31" s="4">
         <v>688.64</v>
@@ -3060,7 +3054,7 @@
         <v>45236</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3074,16 +3068,16 @@
         <v>45210</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="4">
         <v>688.64</v>
@@ -3095,7 +3089,7 @@
         <v>45236</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3109,16 +3103,16 @@
         <v>45210</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="H33" s="4">
         <v>694.42</v>
@@ -3130,7 +3124,7 @@
         <v>45236</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3144,16 +3138,16 @@
         <v>45210</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="H34" s="4">
         <v>684.27</v>
@@ -3165,7 +3159,7 @@
         <v>45245</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3179,16 +3173,16 @@
         <v>45210</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H35" s="4">
         <v>637.12</v>
@@ -3200,7 +3194,7 @@
         <v>45245</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3214,16 +3208,16 @@
         <v>45210</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="H36" s="4">
         <v>637.12</v>
@@ -3235,7 +3229,7 @@
         <v>45245</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3249,16 +3243,16 @@
         <v>45210</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="H37" s="4">
         <v>637.12</v>
@@ -3270,7 +3264,7 @@
         <v>45236</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3284,16 +3278,16 @@
         <v>45210</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="H38" s="4">
         <v>635.29999999999995</v>
@@ -3305,7 +3299,7 @@
         <v>45236</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3319,16 +3313,16 @@
         <v>45210</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="H39" s="4">
         <v>629.6</v>
@@ -3340,7 +3334,7 @@
         <v>45236</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3354,16 +3348,16 @@
         <v>45210</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H40" s="4">
         <v>637.12</v>
@@ -3375,7 +3369,7 @@
         <v>45245</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3389,16 +3383,16 @@
         <v>45210</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="H41" s="4">
         <v>601.62</v>
@@ -3410,7 +3404,7 @@
         <v>45236</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3424,16 +3418,16 @@
         <v>45210</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H42" s="4">
         <v>630.11</v>
@@ -3445,7 +3439,7 @@
         <v>45236</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3459,16 +3453,16 @@
         <v>45210</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H43" s="4">
         <v>651.22</v>
@@ -3480,7 +3474,7 @@
         <v>45236</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3494,16 +3488,16 @@
         <v>45210</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H44" s="4">
         <v>601.62</v>
@@ -3515,7 +3509,7 @@
         <v>45236</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3529,16 +3523,16 @@
         <v>45210</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="H45" s="4">
         <v>630.11</v>
@@ -3550,7 +3544,7 @@
         <v>45236</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3564,16 +3558,16 @@
         <v>45210</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="H46" s="4">
         <v>630.11</v>
@@ -3585,7 +3579,7 @@
         <v>45236</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3599,16 +3593,16 @@
         <v>45210</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="H47" s="4">
         <v>637.12</v>
@@ -3620,7 +3614,7 @@
         <v>45236</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3634,16 +3628,16 @@
         <v>45210</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="H48" s="4">
         <v>637.12</v>
@@ -3655,7 +3649,7 @@
         <v>45236</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3669,16 +3663,16 @@
         <v>45210</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="H49" s="4">
         <v>637.12</v>
@@ -3690,7 +3684,7 @@
         <v>45236</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3704,16 +3698,16 @@
         <v>45210</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="H50" s="4">
         <v>636.41999999999996</v>
@@ -3725,7 +3719,7 @@
         <v>45236</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3739,16 +3733,16 @@
         <v>45210</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="H51" s="4">
         <v>651.22</v>
@@ -3760,7 +3754,7 @@
         <v>45236</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3774,16 +3768,16 @@
         <v>45210</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="H52" s="4">
         <v>651.22</v>
@@ -3795,7 +3789,7 @@
         <v>45236</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3809,16 +3803,16 @@
         <v>45210</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="H53" s="4">
         <v>636.41999999999996</v>
@@ -3830,7 +3824,7 @@
         <v>45236</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3844,16 +3838,16 @@
         <v>45210</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H54" s="4">
         <v>625.29999999999995</v>
@@ -3865,7 +3859,7 @@
         <v>45236</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3879,16 +3873,16 @@
         <v>45210</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="H55" s="4">
         <v>636.41999999999996</v>
@@ -3900,7 +3894,7 @@
         <v>45236</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3914,16 +3908,16 @@
         <v>45210</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H56" s="4">
         <v>637.12</v>
@@ -3935,7 +3929,7 @@
         <v>45236</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3949,16 +3943,16 @@
         <v>45210</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H57" s="4">
         <v>637.12</v>
@@ -3970,7 +3964,7 @@
         <v>45236</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3984,16 +3978,16 @@
         <v>45210</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="H58" s="4">
         <v>601.62</v>
@@ -4005,7 +3999,7 @@
         <v>45236</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4019,16 +4013,16 @@
         <v>45210</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="H59" s="4">
         <v>636.41999999999996</v>
@@ -4040,7 +4034,7 @@
         <v>45236</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4054,16 +4048,16 @@
         <v>45210</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="H60" s="4">
         <v>637.12</v>
@@ -4075,7 +4069,7 @@
         <v>45236</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4089,16 +4083,16 @@
         <v>45210</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="H61" s="4">
         <v>601.62</v>
@@ -4110,7 +4104,7 @@
         <v>45236</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4124,16 +4118,16 @@
         <v>45210</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="H62" s="4">
         <v>644.74</v>
@@ -4145,7 +4139,7 @@
         <v>45236</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4159,16 +4153,16 @@
         <v>45210</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="H63" s="4">
         <v>636.41999999999996</v>
@@ -4180,7 +4174,7 @@
         <v>45236</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4194,16 +4188,16 @@
         <v>45210</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="H64" s="4">
         <v>636.41999999999996</v>
@@ -4215,7 +4209,7 @@
         <v>45236</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4229,16 +4223,16 @@
         <v>45210</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="H65" s="4">
         <v>644.74</v>
@@ -4250,7 +4244,7 @@
         <v>45236</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4264,16 +4258,16 @@
         <v>45210</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="H66" s="4">
         <v>651.22</v>
@@ -4285,7 +4279,7 @@
         <v>45236</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4299,16 +4293,16 @@
         <v>45210</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="H67" s="4">
         <v>644.74</v>
@@ -4320,7 +4314,7 @@
         <v>45236</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4334,16 +4328,16 @@
         <v>45210</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="H68" s="4">
         <v>688.64</v>
@@ -4355,7 +4349,7 @@
         <v>45236</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4369,16 +4363,16 @@
         <v>45210</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="H69" s="4">
         <v>644.74</v>
@@ -4390,7 +4384,7 @@
         <v>45236</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4404,16 +4398,16 @@
         <v>45210</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="H70" s="4">
         <v>626.79</v>
@@ -4425,7 +4419,7 @@
         <v>45236</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4439,16 +4433,16 @@
         <v>45210</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="H71" s="4">
         <v>688.64</v>
@@ -4460,7 +4454,7 @@
         <v>45236</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4474,16 +4468,16 @@
         <v>45210</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="H72" s="4">
         <v>637.12</v>
@@ -4495,7 +4489,7 @@
         <v>45236</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4509,16 +4503,16 @@
         <v>45210</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="H73" s="4">
         <v>684.27</v>
@@ -4530,7 +4524,7 @@
         <v>45236</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4544,16 +4538,16 @@
         <v>45210</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="H74" s="4">
         <v>684.27</v>
@@ -4565,7 +4559,7 @@
         <v>45236</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4579,16 +4573,16 @@
         <v>45210</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="H75" s="4">
         <v>684.27</v>
@@ -4600,7 +4594,7 @@
         <v>45236</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4614,16 +4608,16 @@
         <v>45210</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="H76" s="4">
         <v>626.79</v>
@@ -4635,7 +4629,7 @@
         <v>45236</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/excel/teste_faturamento-teste-email-duplicado 1.xlsx
+++ b/excel/teste_faturamento-teste-email-duplicado 1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python-Emails-Sends\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF40EEE3-9214-420E-92BA-BD3AA8AC05BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TESTE" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTE!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="364">
   <si>
     <t>ID interno</t>
   </si>
@@ -161,7 +160,7 @@
     <t>MATOS E KRETLI- BKN 27721 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>teste@gmail.com</t>
+    <t>curriculo@bancoalfa.com.br</t>
   </si>
   <si>
     <t>012456</t>
@@ -176,6 +175,9 @@
     <t>LOJA RONDONÓLIS BKN 27968, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>bancoaxial@bancoaxial.com.br</t>
+  </si>
+  <si>
     <t>012457</t>
   </si>
   <si>
@@ -188,6 +190,9 @@
     <t>LOJA IMPERATRIZ BKN 23332  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rh@bbmbank.com.br</t>
+  </si>
+  <si>
     <t>012458</t>
   </si>
   <si>
@@ -212,9 +217,6 @@
     <t>LOJA GOVERNADOR VALADARES, BKN 27996 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>setorfinanceiro.uniao@gmail.com</t>
-  </si>
-  <si>
     <t>012460</t>
   </si>
   <si>
@@ -227,7 +229,7 @@
     <t>LOJA CAMPO GRANDE - MT  BKN 27986 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>financeiro@bkconforti.com</t>
+    <t>fun.cart@bnl.com.br</t>
   </si>
   <si>
     <t>012461</t>
@@ -242,7 +244,7 @@
     <t>LOJA OIAPOQUE BKN 25048 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>ricardo.de.campos@hotmail.com</t>
+    <t>fiatrh@fiat.com.br</t>
   </si>
   <si>
     <t>012462</t>
@@ -257,7 +259,7 @@
     <t>LOJA ZAFFARI HÍPICA BKN 27993- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>financeiro.bk@empresasbless.com.br</t>
+    <t>rh@hexxa.com.br</t>
   </si>
   <si>
     <t>012463</t>
@@ -272,6 +274,9 @@
     <t>LOJA JOÃO PESSOA SHOPPING BKN 27992 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rh-recrutamento@hsbc.com.br</t>
+  </si>
+  <si>
     <t>012464</t>
   </si>
   <si>
@@ -284,7 +289,7 @@
     <t>ALPHA SHOPPING BKN 27592 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>alphashopping.bk@gmail.com</t>
+    <t>banco@indusval.com.br</t>
   </si>
   <si>
     <t>012465</t>
@@ -299,7 +304,7 @@
     <t>LOJA GREEN PLAZA - MG  BKN 28227 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>bkgreenplaza@gmail.com</t>
+    <t>recrutamento@real.com.br</t>
   </si>
   <si>
     <t>012466</t>
@@ -314,7 +319,7 @@
     <t>LOJA FEIRÃO DA MODA, BKN 28149, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>patriciasatyrofinanceiro@feiraomodario.net.br</t>
+    <t>curriculum@santander.com.br</t>
   </si>
   <si>
     <t>012467</t>
@@ -329,7 +334,7 @@
     <t>EXTRA EUSÉBIO BKN 27591-  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>tatielebarroso@infoxparticipacoes.com</t>
+    <t>sgbrasc@uol.com.br</t>
   </si>
   <si>
     <t>012468</t>
@@ -344,7 +349,7 @@
     <t>LOJA SHOP PIER 21 BKN 21274  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>adm@grupoalvim.com.br</t>
+    <t>recrutamento@bd.com.br</t>
   </si>
   <si>
     <t>012469</t>
@@ -431,7 +436,7 @@
     <t>KSK ESTAÇÃO DA LAPA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>cs.sampaio91@hotmail.com</t>
+    <t>rh.selecao@citicorp.com</t>
   </si>
   <si>
     <t>012476</t>
@@ -458,7 +463,7 @@
     <t>BKN 28350 -LOJA SERRA TALHADA  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>jdfjodibe@jodibe.com.br</t>
+    <t>curriculo@cna.com.br</t>
   </si>
   <si>
     <t>012478</t>
@@ -473,7 +478,7 @@
     <t>BKN 28289 - LOJA ARAPONGAS, MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>beatriz@grupobeb.com</t>
+    <t>recrutamento@berlitz.com.br</t>
   </si>
   <si>
     <t>012479</t>
@@ -488,7 +493,7 @@
     <t>LOJA K TOWN, BKN 28297- MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>contas@jikalbk.com.br</t>
+    <t>recrutamento@accor.com.br</t>
   </si>
   <si>
     <t>012480</t>
@@ -503,7 +508,7 @@
     <t>GAMA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
   </si>
   <si>
-    <t>financeirobk12@gmail.com</t>
+    <t>rh@bluetree.com.br</t>
   </si>
   <si>
     <t>012481</t>
@@ -530,7 +535,7 @@
     <t>LOJA BUENA VISTA - BKN 26588 -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>guilhermeqc@terra.com.br</t>
+    <t>diretoria@hotelcabreuva.com.br</t>
   </si>
   <si>
     <t>012483</t>
@@ -545,7 +550,7 @@
     <t>LOJA ACLIMAÇÃO -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>nataliako@casabueno.com.br</t>
+    <t>candidato@transamerica.com.br</t>
   </si>
   <si>
     <t>012484</t>
@@ -560,6 +565,9 @@
     <t>BK POMPÉIA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rh@7comm.com.br</t>
+  </si>
+  <si>
     <t>012485</t>
   </si>
   <si>
@@ -572,7 +580,7 @@
     <t>VIA VERDE  SHOPPING -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>daf@grupoaguanaboca.com</t>
+    <t>rh@aabb.esp.br</t>
   </si>
   <si>
     <t>012486</t>
@@ -587,7 +595,7 @@
     <t>LOJA TOLEDO, BKN 29286 - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>luciane@sthonore.com.br</t>
+    <t>talentoshumanos@algar.com.br</t>
   </si>
   <si>
     <t>012487</t>
@@ -602,7 +610,7 @@
     <t>LOJA OLÍMPIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>financeiro03.olimpiapark@enjoyhoteis.com.br</t>
+    <t>rh@tubosapolo.com.br</t>
   </si>
   <si>
     <t>012488</t>
@@ -617,7 +625,7 @@
     <t>RIVER - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>campus.10@hotmail.com</t>
+    <t>selecao@arteb.com.br</t>
   </si>
   <si>
     <t>012489</t>
@@ -632,6 +640,9 @@
     <t>JUÁ GARDEN SHOPPING MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rh@arthabr.com</t>
+  </si>
+  <si>
     <t>012490</t>
   </si>
   <si>
@@ -644,6 +655,9 @@
     <t>AGUAS CLARAS MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rh@azaleia.com.br</t>
+  </si>
+  <si>
     <t>012491</t>
   </si>
   <si>
@@ -656,6 +670,9 @@
     <t>LOJA MASCARENHAS MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>recursos.humanos@basf-sa.com.br</t>
+  </si>
+  <si>
     <t>012492</t>
   </si>
   <si>
@@ -704,6 +721,9 @@
     <t>LAGO SUL MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>selecao@bombril.com.br</t>
+  </si>
+  <si>
     <t>012496</t>
   </si>
   <si>
@@ -716,7 +736,7 @@
     <t>PARAUPEBAS - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>financeiro.bkmab@gmail.com</t>
+    <t>recruta.bosch.rbbr@br.bosch.com</t>
   </si>
   <si>
     <t>012497</t>
@@ -731,6 +751,9 @@
     <t>ASA SUL - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rhboucin@boucinhas.com.br</t>
+  </si>
+  <si>
     <t>012498</t>
   </si>
   <si>
@@ -743,7 +766,7 @@
     <t>LOJA ÔNIX  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>mota@hfmota.com.br</t>
+    <t>gente@brahma.com.br</t>
   </si>
   <si>
     <t>012499</t>
@@ -758,6 +781,9 @@
     <t>ASA NORTE MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>brasilata@brasilata.com.br</t>
+  </si>
+  <si>
     <t>012500</t>
   </si>
   <si>
@@ -770,7 +796,7 @@
     <t>BK CARIRI  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>burgerkingcariri@hotmail.com</t>
+    <t>rh@caramuru.com</t>
   </si>
   <si>
     <t>012501</t>
@@ -785,6 +811,9 @@
     <t>SUDOESTE BRASILIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>recrutamento_cargill@cargill.com</t>
+  </si>
+  <si>
     <t>012502</t>
   </si>
   <si>
@@ -797,6 +826,9 @@
     <t>PATIO MARABA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rh@cce.com.br</t>
+  </si>
+  <si>
     <t>012503</t>
   </si>
   <si>
@@ -809,7 +841,7 @@
     <t>PATIO MIX BAHIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>cdagf@hotmail.com</t>
+    <t>talentos@cimentoitau.com.br</t>
   </si>
   <si>
     <t>012504</t>
@@ -824,7 +856,7 @@
     <t>FORT ATACADISTA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>bk.financeiro@pampa.net</t>
+    <t>rh@ceramicasantana.com.br</t>
   </si>
   <si>
     <t>012505</t>
@@ -911,6 +943,9 @@
     <t>SPIPE CALARGE  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>Brasil_HR@Dell.com</t>
+  </si>
+  <si>
     <t>012512</t>
   </si>
   <si>
@@ -923,6 +958,9 @@
     <t>CEILANDIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>recrutamento@dow.com</t>
+  </si>
+  <si>
     <t>012513</t>
   </si>
   <si>
@@ -935,6 +973,9 @@
     <t>UBERLANDIA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>rhembraco@embraco.com.br</t>
+  </si>
+  <si>
     <t>012514</t>
   </si>
   <si>
@@ -947,6 +988,9 @@
     <t>CALDAS NOVAS SHOPPING  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>dpessoal@estrela.ind.br</t>
+  </si>
+  <si>
     <t>012515</t>
   </si>
   <si>
@@ -959,7 +1003,7 @@
     <t>ILHÉUS CENTRO  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS  REF SETEMBRO</t>
   </si>
   <si>
-    <t>paulo.vieira@grupormfba.com.br</t>
+    <t>selecao@ford.com</t>
   </si>
   <si>
     <t>012516</t>
@@ -974,7 +1018,7 @@
     <t>LOJA SHOP NOVA BELFORD  - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>suprimentos@lojas3b.com.br</t>
+    <t>rh@gemini.com.br</t>
   </si>
   <si>
     <t>012517</t>
@@ -989,7 +1033,7 @@
     <t>PATIO RORAIMA , MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO ** Reajuste aniversário do contrato - Índice IPCA 3,992440 % (acumulado 12 meses, período de 08/22 até 07/23).</t>
   </si>
   <si>
-    <t>adm@brasilbv.com.br</t>
+    <t>rh-sp@gerdau.com.br</t>
   </si>
   <si>
     <t>012518</t>
@@ -1004,7 +1048,7 @@
     <t>AVENIDA CENTER -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>financeiro.pfoods@gmail.com</t>
+    <t>recrutamento.amplant@goodyear.com</t>
   </si>
   <si>
     <t>012519</t>
@@ -1019,7 +1063,7 @@
     <t>CAMPO MOURÃO MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
   </si>
   <si>
-    <t>grupogarcia.cm@hotmail.com</t>
+    <t>rh@gradiente.com.br</t>
   </si>
   <si>
     <t>012520</t>
@@ -1034,6 +1078,9 @@
     <t>LOJA SANTA MARIA - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
   </si>
   <si>
+    <t>cv@grupoaurea.com.br</t>
+  </si>
+  <si>
     <t>012521</t>
   </si>
   <si>
@@ -1046,7 +1093,7 @@
     <t>SHOPPING PARANAGUÁ MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
   </si>
   <si>
-    <t>bkestacaomall@terra.com.br</t>
+    <t>rh@intelbras.com.br</t>
   </si>
   <si>
     <t>012522</t>
@@ -1061,14 +1108,35 @@
     <t>AVENIDA DO TURISMO MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>c.pagar@spgrupo.com</t>
+    <t>rh@itambe.com.br</t>
+  </si>
+  <si>
+    <t>012454</t>
+  </si>
+  <si>
+    <t>012453</t>
+  </si>
+  <si>
+    <t>012452</t>
+  </si>
+  <si>
+    <t>012451</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>012449</t>
+  </si>
+  <si>
+    <t>012448</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,12 +1295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1593,7 +1655,7 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1625,12 +1687,12 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="43" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42" xr:uid="{759258B7-D103-45C8-8D79-5D7866F5BD6F}"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1950,19 +2012,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3980979-A4A3-4BEF-82D1-E54DA2605DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" customWidth="1"/>
@@ -1972,7 +2034,7 @@
     <col min="11" max="11" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>515818</v>
       </c>
@@ -2017,8 +2079,8 @@
       <c r="C2" s="3">
         <v>45210</v>
       </c>
-      <c r="D2" s="1">
-        <v>12448</v>
+      <c r="D2" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -2042,7 +2104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>515819</v>
       </c>
@@ -2052,8 +2114,8 @@
       <c r="C3" s="3">
         <v>45210</v>
       </c>
-      <c r="D3" s="1">
-        <v>12449</v>
+      <c r="D3" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -2077,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>515820</v>
       </c>
@@ -2087,8 +2149,8 @@
       <c r="C4" s="3">
         <v>45210</v>
       </c>
-      <c r="D4" s="1">
-        <v>12450</v>
+      <c r="D4" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -2112,7 +2174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>515821</v>
       </c>
@@ -2122,8 +2184,8 @@
       <c r="C5" s="3">
         <v>45210</v>
       </c>
-      <c r="D5" s="1">
-        <v>12451</v>
+      <c r="D5" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -2147,7 +2209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>515822</v>
       </c>
@@ -2157,8 +2219,8 @@
       <c r="C6" s="3">
         <v>45210</v>
       </c>
-      <c r="D6" s="1">
-        <v>12452</v>
+      <c r="D6" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2182,7 +2244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>515823</v>
       </c>
@@ -2192,8 +2254,8 @@
       <c r="C7" s="3">
         <v>45210</v>
       </c>
-      <c r="D7" s="1">
-        <v>12453</v>
+      <c r="D7" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -2217,7 +2279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>515824</v>
       </c>
@@ -2227,8 +2289,8 @@
       <c r="C8" s="3">
         <v>45210</v>
       </c>
-      <c r="D8" s="1">
-        <v>12454</v>
+      <c r="D8" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -2252,7 +2314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>515825</v>
       </c>
@@ -2287,7 +2349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>515826</v>
       </c>
@@ -2318,11 +2380,11 @@
       <c r="J10" s="3">
         <v>45240</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>515827</v>
       </c>
@@ -2333,16 +2395,16 @@
         <v>45210</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4">
         <v>636.41999999999996</v>
@@ -2353,11 +2415,11 @@
       <c r="J11" s="3">
         <v>45240</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>515828</v>
       </c>
@@ -2368,16 +2430,16 @@
         <v>45210</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="4">
         <v>637.12</v>
@@ -2388,11 +2450,11 @@
       <c r="J12" s="3">
         <v>45236</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>515829</v>
       </c>
@@ -2403,16 +2465,16 @@
         <v>45210</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="4">
         <v>637.12</v>
@@ -2423,11 +2485,11 @@
       <c r="J13" s="3">
         <v>45236</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>515830</v>
       </c>
@@ -2438,16 +2500,16 @@
         <v>45210</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4">
         <v>637.12</v>
@@ -2458,11 +2520,11 @@
       <c r="J14" s="3">
         <v>45236</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>515831</v>
       </c>
@@ -2473,16 +2535,16 @@
         <v>45210</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" s="4">
         <v>651.22</v>
@@ -2493,11 +2555,11 @@
       <c r="J15" s="3">
         <v>45236</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>515832</v>
       </c>
@@ -2508,16 +2570,16 @@
         <v>45210</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="4">
         <v>637.12</v>
@@ -2528,11 +2590,11 @@
       <c r="J16" s="3">
         <v>45236</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>515833</v>
       </c>
@@ -2543,16 +2605,16 @@
         <v>45210</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="4">
         <v>601.62</v>
@@ -2563,11 +2625,11 @@
       <c r="J17" s="3">
         <v>45236</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>515834</v>
       </c>
@@ -2578,16 +2640,16 @@
         <v>45210</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" s="4">
         <v>637.12</v>
@@ -2598,11 +2660,11 @@
       <c r="J18" s="3">
         <v>45236</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>515835</v>
       </c>
@@ -2613,16 +2675,16 @@
         <v>45210</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="4">
         <v>637.12</v>
@@ -2633,11 +2695,11 @@
       <c r="J19" s="3">
         <v>45236</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>515836</v>
       </c>
@@ -2648,16 +2710,16 @@
         <v>45210</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="4">
         <v>636.29999999999995</v>
@@ -2668,11 +2730,11 @@
       <c r="J20" s="3">
         <v>45236</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>515837</v>
       </c>
@@ -2683,16 +2745,16 @@
         <v>45210</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="4">
         <v>651.22</v>
@@ -2703,11 +2765,11 @@
       <c r="J21" s="3">
         <v>45236</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>515838</v>
       </c>
@@ -2718,16 +2780,16 @@
         <v>45210</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H22" s="4">
         <v>651.22</v>
@@ -2738,11 +2800,11 @@
       <c r="J22" s="3">
         <v>45236</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>515839</v>
       </c>
@@ -2753,16 +2815,16 @@
         <v>45210</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H23" s="4">
         <v>651.22</v>
@@ -2773,11 +2835,11 @@
       <c r="J23" s="3">
         <v>45236</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>515840</v>
       </c>
@@ -2788,16 +2850,16 @@
         <v>45210</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" s="4">
         <v>651.22</v>
@@ -2808,11 +2870,11 @@
       <c r="J24" s="3">
         <v>45236</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>515841</v>
       </c>
@@ -2823,16 +2885,16 @@
         <v>45210</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="4">
         <v>651.22</v>
@@ -2843,11 +2905,11 @@
       <c r="J25" s="3">
         <v>45236</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>515842</v>
       </c>
@@ -2858,16 +2920,16 @@
         <v>45210</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H26" s="4">
         <v>637.12</v>
@@ -2878,11 +2940,11 @@
       <c r="J26" s="3">
         <v>45236</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="K26" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>515843</v>
       </c>
@@ -2893,16 +2955,16 @@
         <v>45210</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H27" s="4">
         <v>637.12</v>
@@ -2913,11 +2975,11 @@
       <c r="J27" s="3">
         <v>45236</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>515844</v>
       </c>
@@ -2928,16 +2990,16 @@
         <v>45210</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H28" s="4">
         <v>651.22</v>
@@ -2948,11 +3010,11 @@
       <c r="J28" s="3">
         <v>45236</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="K28" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>515845</v>
       </c>
@@ -2963,16 +3025,16 @@
         <v>45210</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H29" s="4">
         <v>370.66</v>
@@ -2983,11 +3045,11 @@
       <c r="J29" s="3">
         <v>45245</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="K29" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>515846</v>
       </c>
@@ -2998,16 +3060,16 @@
         <v>45210</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H30" s="4">
         <v>636.36</v>
@@ -3018,11 +3080,11 @@
       <c r="J30" s="3">
         <v>45245</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="K30" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>515847</v>
       </c>
@@ -3033,16 +3095,16 @@
         <v>45210</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H31" s="4">
         <v>688.64</v>
@@ -3053,11 +3115,11 @@
       <c r="J31" s="3">
         <v>45236</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="K31" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>515848</v>
       </c>
@@ -3068,16 +3130,16 @@
         <v>45210</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H32" s="4">
         <v>688.64</v>
@@ -3088,11 +3150,11 @@
       <c r="J32" s="3">
         <v>45236</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>515849</v>
       </c>
@@ -3103,16 +3165,16 @@
         <v>45210</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H33" s="4">
         <v>694.42</v>
@@ -3123,11 +3185,11 @@
       <c r="J33" s="3">
         <v>45236</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>515850</v>
       </c>
@@ -3138,16 +3200,16 @@
         <v>45210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H34" s="4">
         <v>684.27</v>
@@ -3158,11 +3220,11 @@
       <c r="J34" s="3">
         <v>45245</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>515851</v>
       </c>
@@ -3173,16 +3235,16 @@
         <v>45210</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H35" s="4">
         <v>637.12</v>
@@ -3193,11 +3255,11 @@
       <c r="J35" s="3">
         <v>45245</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>515852</v>
       </c>
@@ -3208,16 +3270,16 @@
         <v>45210</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H36" s="4">
         <v>637.12</v>
@@ -3228,11 +3290,11 @@
       <c r="J36" s="3">
         <v>45245</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>515853</v>
       </c>
@@ -3243,16 +3305,16 @@
         <v>45210</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H37" s="4">
         <v>637.12</v>
@@ -3263,11 +3325,11 @@
       <c r="J37" s="3">
         <v>45236</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>515854</v>
       </c>
@@ -3278,16 +3340,16 @@
         <v>45210</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H38" s="4">
         <v>635.29999999999995</v>
@@ -3298,11 +3360,11 @@
       <c r="J38" s="3">
         <v>45236</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>515855</v>
       </c>
@@ -3313,16 +3375,16 @@
         <v>45210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H39" s="4">
         <v>629.6</v>
@@ -3333,11 +3395,11 @@
       <c r="J39" s="3">
         <v>45236</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>515856</v>
       </c>
@@ -3348,16 +3410,16 @@
         <v>45210</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H40" s="4">
         <v>637.12</v>
@@ -3368,11 +3430,11 @@
       <c r="J40" s="3">
         <v>45245</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="K40" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>515857</v>
       </c>
@@ -3383,16 +3445,16 @@
         <v>45210</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H41" s="4">
         <v>601.62</v>
@@ -3403,11 +3465,11 @@
       <c r="J41" s="3">
         <v>45236</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="K41" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>515858</v>
       </c>
@@ -3418,16 +3480,16 @@
         <v>45210</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H42" s="4">
         <v>630.11</v>
@@ -3438,11 +3500,11 @@
       <c r="J42" s="3">
         <v>45236</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="K42" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>515859</v>
       </c>
@@ -3453,16 +3515,16 @@
         <v>45210</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H43" s="4">
         <v>651.22</v>
@@ -3473,11 +3535,11 @@
       <c r="J43" s="3">
         <v>45236</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="K43" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>515860</v>
       </c>
@@ -3488,16 +3550,16 @@
         <v>45210</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H44" s="4">
         <v>601.62</v>
@@ -3508,11 +3570,11 @@
       <c r="J44" s="3">
         <v>45236</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="K44" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>515861</v>
       </c>
@@ -3523,16 +3585,16 @@
         <v>45210</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H45" s="4">
         <v>630.11</v>
@@ -3543,11 +3605,11 @@
       <c r="J45" s="3">
         <v>45236</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>515862</v>
       </c>
@@ -3558,16 +3620,16 @@
         <v>45210</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H46" s="4">
         <v>630.11</v>
@@ -3578,11 +3640,11 @@
       <c r="J46" s="3">
         <v>45236</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="K46" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>515863</v>
       </c>
@@ -3593,16 +3655,16 @@
         <v>45210</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H47" s="4">
         <v>637.12</v>
@@ -3613,11 +3675,11 @@
       <c r="J47" s="3">
         <v>45236</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="K47" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>515864</v>
       </c>
@@ -3628,16 +3690,16 @@
         <v>45210</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H48" s="4">
         <v>637.12</v>
@@ -3648,11 +3710,11 @@
       <c r="J48" s="3">
         <v>45236</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="K48" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>515865</v>
       </c>
@@ -3663,16 +3725,16 @@
         <v>45210</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H49" s="4">
         <v>637.12</v>
@@ -3683,11 +3745,11 @@
       <c r="J49" s="3">
         <v>45236</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="K49" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>515866</v>
       </c>
@@ -3698,16 +3760,16 @@
         <v>45210</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H50" s="4">
         <v>636.41999999999996</v>
@@ -3718,11 +3780,11 @@
       <c r="J50" s="3">
         <v>45236</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="K50" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>515867</v>
       </c>
@@ -3733,16 +3795,16 @@
         <v>45210</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H51" s="4">
         <v>651.22</v>
@@ -3753,11 +3815,11 @@
       <c r="J51" s="3">
         <v>45236</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K51" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>515868</v>
       </c>
@@ -3768,16 +3830,16 @@
         <v>45210</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H52" s="4">
         <v>651.22</v>
@@ -3788,11 +3850,11 @@
       <c r="J52" s="3">
         <v>45236</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="K52" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>515869</v>
       </c>
@@ -3803,16 +3865,16 @@
         <v>45210</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H53" s="4">
         <v>636.41999999999996</v>
@@ -3823,11 +3885,11 @@
       <c r="J53" s="3">
         <v>45236</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="K53" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>515870</v>
       </c>
@@ -3838,16 +3900,16 @@
         <v>45210</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H54" s="4">
         <v>625.29999999999995</v>
@@ -3858,11 +3920,11 @@
       <c r="J54" s="3">
         <v>45236</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>515871</v>
       </c>
@@ -3873,16 +3935,16 @@
         <v>45210</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H55" s="4">
         <v>636.41999999999996</v>
@@ -3893,11 +3955,11 @@
       <c r="J55" s="3">
         <v>45236</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>515872</v>
       </c>
@@ -3908,16 +3970,16 @@
         <v>45210</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H56" s="4">
         <v>637.12</v>
@@ -3928,11 +3990,11 @@
       <c r="J56" s="3">
         <v>45236</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="K56" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>515873</v>
       </c>
@@ -3943,16 +4005,16 @@
         <v>45210</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H57" s="4">
         <v>637.12</v>
@@ -3963,11 +4025,11 @@
       <c r="J57" s="3">
         <v>45236</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="K57" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>515874</v>
       </c>
@@ -3978,16 +4040,16 @@
         <v>45210</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H58" s="4">
         <v>601.62</v>
@@ -3998,11 +4060,11 @@
       <c r="J58" s="3">
         <v>45236</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="K58" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>515875</v>
       </c>
@@ -4013,16 +4075,16 @@
         <v>45210</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H59" s="4">
         <v>636.41999999999996</v>
@@ -4033,11 +4095,11 @@
       <c r="J59" s="3">
         <v>45236</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="K59" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>515876</v>
       </c>
@@ -4048,16 +4110,16 @@
         <v>45210</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H60" s="4">
         <v>637.12</v>
@@ -4068,11 +4130,11 @@
       <c r="J60" s="3">
         <v>45236</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>515877</v>
       </c>
@@ -4083,16 +4145,16 @@
         <v>45210</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H61" s="4">
         <v>601.62</v>
@@ -4103,11 +4165,11 @@
       <c r="J61" s="3">
         <v>45236</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="K61" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>515878</v>
       </c>
@@ -4118,16 +4180,16 @@
         <v>45210</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H62" s="4">
         <v>644.74</v>
@@ -4138,11 +4200,11 @@
       <c r="J62" s="3">
         <v>45236</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="K62" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>515879</v>
       </c>
@@ -4153,16 +4215,16 @@
         <v>45210</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H63" s="4">
         <v>636.41999999999996</v>
@@ -4173,11 +4235,11 @@
       <c r="J63" s="3">
         <v>45236</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="K63" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>515880</v>
       </c>
@@ -4188,16 +4250,16 @@
         <v>45210</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="H64" s="4">
         <v>636.41999999999996</v>
@@ -4208,11 +4270,11 @@
       <c r="J64" s="3">
         <v>45236</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="K64" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>515881</v>
       </c>
@@ -4223,16 +4285,16 @@
         <v>45210</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="H65" s="4">
         <v>644.74</v>
@@ -4243,11 +4305,11 @@
       <c r="J65" s="3">
         <v>45236</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="K65" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>515882</v>
       </c>
@@ -4258,16 +4320,16 @@
         <v>45210</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H66" s="4">
         <v>651.22</v>
@@ -4278,11 +4340,11 @@
       <c r="J66" s="3">
         <v>45236</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="K66" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>515883</v>
       </c>
@@ -4293,16 +4355,16 @@
         <v>45210</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="H67" s="4">
         <v>644.74</v>
@@ -4313,11 +4375,11 @@
       <c r="J67" s="3">
         <v>45236</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="K67" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>515884</v>
       </c>
@@ -4328,16 +4390,16 @@
         <v>45210</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="H68" s="4">
         <v>688.64</v>
@@ -4348,11 +4410,11 @@
       <c r="J68" s="3">
         <v>45236</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="K68" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>515885</v>
       </c>
@@ -4363,16 +4425,16 @@
         <v>45210</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H69" s="4">
         <v>644.74</v>
@@ -4383,11 +4445,11 @@
       <c r="J69" s="3">
         <v>45236</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>515886</v>
       </c>
@@ -4398,16 +4460,16 @@
         <v>45210</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H70" s="4">
         <v>626.79</v>
@@ -4418,11 +4480,11 @@
       <c r="J70" s="3">
         <v>45236</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="K70" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>515887</v>
       </c>
@@ -4433,16 +4495,16 @@
         <v>45210</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H71" s="4">
         <v>688.64</v>
@@ -4453,11 +4515,11 @@
       <c r="J71" s="3">
         <v>45236</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="K71" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>515888</v>
       </c>
@@ -4468,16 +4530,16 @@
         <v>45210</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H72" s="4">
         <v>637.12</v>
@@ -4488,11 +4550,11 @@
       <c r="J72" s="3">
         <v>45236</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>515889</v>
       </c>
@@ -4503,16 +4565,16 @@
         <v>45210</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H73" s="4">
         <v>684.27</v>
@@ -4523,11 +4585,11 @@
       <c r="J73" s="3">
         <v>45236</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="K73" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>515890</v>
       </c>
@@ -4538,16 +4600,16 @@
         <v>45210</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H74" s="4">
         <v>684.27</v>
@@ -4558,11 +4620,11 @@
       <c r="J74" s="3">
         <v>45236</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="K74" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>515891</v>
       </c>
@@ -4573,16 +4635,16 @@
         <v>45210</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="H75" s="4">
         <v>684.27</v>
@@ -4593,11 +4655,11 @@
       <c r="J75" s="3">
         <v>45236</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="K75" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>515892</v>
       </c>
@@ -4608,16 +4670,16 @@
         <v>45210</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="H76" s="4">
         <v>626.79</v>
@@ -4628,22 +4690,93 @@
       <c r="J76" s="3">
         <v>45236</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>340</v>
+      <c r="K76" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{A3980979-A4A3-4BEF-82D1-E54DA2605DC7}"/>
+  <autoFilter ref="A1:K1"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{A2585154-5C82-4230-8868-E30E617546F7}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{3631FA2A-EFD1-4A00-A3AF-5011FEC93FE8}"/>
-    <hyperlink ref="K7" r:id="rId3" xr:uid="{741145C0-2C3F-4028-9A2F-3D0B1C482497}"/>
-    <hyperlink ref="K8" r:id="rId4" xr:uid="{90DD2026-8BCF-44B4-A21A-3BF06956BC60}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{F667B957-6845-4FAC-A527-A8016C4772C2}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{F6DBB2CC-913F-4D8F-B3F6-AE7014BCF2E3}"/>
-    <hyperlink ref="K3" r:id="rId7" xr:uid="{4AAF3CF8-9906-4998-8E72-B74B4315D10F}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{3F57EEB6-3EA6-45C4-A964-6995F699D159}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2"/>
+    <hyperlink ref="K7" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K4" r:id="rId6"/>
+    <hyperlink ref="K3" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K12" r:id="rId10"/>
+    <hyperlink ref="K11" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="K20" r:id="rId19"/>
+    <hyperlink ref="K21" r:id="rId20"/>
+    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K23" r:id="rId22"/>
+    <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="K30" r:id="rId29"/>
+    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K32" r:id="rId31"/>
+    <hyperlink ref="K33" r:id="rId32"/>
+    <hyperlink ref="K34" r:id="rId33"/>
+    <hyperlink ref="K35" r:id="rId34"/>
+    <hyperlink ref="K36" r:id="rId35"/>
+    <hyperlink ref="K37" r:id="rId36"/>
+    <hyperlink ref="K38" r:id="rId37"/>
+    <hyperlink ref="K39" r:id="rId38"/>
+    <hyperlink ref="K40" r:id="rId39"/>
+    <hyperlink ref="K41" r:id="rId40"/>
+    <hyperlink ref="K42" r:id="rId41"/>
+    <hyperlink ref="K43" r:id="rId42"/>
+    <hyperlink ref="K44" r:id="rId43"/>
+    <hyperlink ref="K45" r:id="rId44"/>
+    <hyperlink ref="K46" r:id="rId45"/>
+    <hyperlink ref="K47" r:id="rId46"/>
+    <hyperlink ref="K48" r:id="rId47"/>
+    <hyperlink ref="K49" r:id="rId48"/>
+    <hyperlink ref="K50" r:id="rId49"/>
+    <hyperlink ref="K51" r:id="rId50"/>
+    <hyperlink ref="K52" r:id="rId51"/>
+    <hyperlink ref="K53" r:id="rId52"/>
+    <hyperlink ref="K54" r:id="rId53"/>
+    <hyperlink ref="K55" r:id="rId54"/>
+    <hyperlink ref="K56" r:id="rId55"/>
+    <hyperlink ref="K57" r:id="rId56"/>
+    <hyperlink ref="K58" r:id="rId57"/>
+    <hyperlink ref="K59" r:id="rId58"/>
+    <hyperlink ref="K60" r:id="rId59"/>
+    <hyperlink ref="K61" r:id="rId60"/>
+    <hyperlink ref="K62" r:id="rId61"/>
+    <hyperlink ref="K63" r:id="rId62"/>
+    <hyperlink ref="K64" r:id="rId63"/>
+    <hyperlink ref="K65" r:id="rId64"/>
+    <hyperlink ref="K66" r:id="rId65"/>
+    <hyperlink ref="K67" r:id="rId66"/>
+    <hyperlink ref="K68" r:id="rId67"/>
+    <hyperlink ref="K69" r:id="rId68"/>
+    <hyperlink ref="K70" r:id="rId69"/>
+    <hyperlink ref="K71" r:id="rId70"/>
+    <hyperlink ref="K72" r:id="rId71"/>
+    <hyperlink ref="K73" r:id="rId72"/>
+    <hyperlink ref="K74" r:id="rId73"/>
+    <hyperlink ref="K75" r:id="rId74"/>
+    <hyperlink ref="K76" r:id="rId75"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
+  <ignoredErrors>
+    <ignoredError sqref="D9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/teste_faturamento-teste-email-duplicado 1.xlsx
+++ b/excel/teste_faturamento-teste-email-duplicado 1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TESTE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTE!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTE!$A$1:$K$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K40" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4695,7 +4695,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:K76"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="K5" r:id="rId2"/>
